--- a/examples/programs/aviation_axa_xl_2024.xlsx
+++ b/examples/programs/aviation_axa_xl_2024.xlsx
@@ -621,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -652,50 +652,55 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>reinsurer_share</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>country</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>region</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>product_type_1</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>product_type_2</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>product_type_3</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>currency</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>line_of_business</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>industry</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>sic_code</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>include</t>
         </is>
@@ -714,20 +719,23 @@
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>0.05</v>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -742,20 +750,23 @@
       <c r="D3" t="n">
         <v>0</v>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>0.05</v>
+      </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>CAD</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -770,20 +781,23 @@
       <c r="D4" t="n">
         <v>0</v>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>0.05</v>
+      </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -798,20 +812,23 @@
       <c r="D5" t="n">
         <v>0</v>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>0.05</v>
+      </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -826,20 +843,23 @@
       <c r="D6" t="n">
         <v>65</v>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>0.05</v>
+      </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -854,20 +874,23 @@
       <c r="D7" t="n">
         <v>65</v>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>0.05</v>
+      </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
         <is>
           <t>CAD</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -882,20 +905,23 @@
       <c r="D8" t="n">
         <v>65</v>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>0.05</v>
+      </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -910,20 +936,23 @@
       <c r="D9" t="n">
         <v>65</v>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>0.05</v>
+      </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -938,20 +967,23 @@
       <c r="D10" t="n">
         <v>115</v>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>0.05</v>
+      </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -966,20 +998,23 @@
       <c r="D11" t="n">
         <v>115</v>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>0.05</v>
+      </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
         <is>
           <t>CAD</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -994,20 +1029,23 @@
       <c r="D12" t="n">
         <v>115</v>
       </c>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>0.05</v>
+      </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1022,20 +1060,23 @@
       <c r="D13" t="n">
         <v>115</v>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>0.05</v>
+      </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1050,20 +1091,23 @@
       <c r="D14" t="n">
         <v>215</v>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>0.05</v>
+      </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1078,20 +1122,23 @@
       <c r="D15" t="n">
         <v>215</v>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>0.05</v>
+      </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
         <is>
           <t>CAD</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1106,20 +1153,23 @@
       <c r="D16" t="n">
         <v>215</v>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>0.05</v>
+      </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1134,20 +1184,23 @@
       <c r="D17" t="n">
         <v>215</v>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>0.05</v>
+      </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr">
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1162,20 +1215,23 @@
       <c r="D18" t="n">
         <v>315</v>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>0.05</v>
+      </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr">
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1190,20 +1246,23 @@
       <c r="D19" t="n">
         <v>315</v>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>0.05</v>
+      </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr">
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
         <is>
           <t>CAD</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1218,20 +1277,23 @@
       <c r="D20" t="n">
         <v>315</v>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>0.05</v>
+      </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr">
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1246,20 +1308,23 @@
       <c r="D21" t="n">
         <v>315</v>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>0.05</v>
+      </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr">
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1274,20 +1339,23 @@
       <c r="D22" t="n">
         <v>415</v>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0.05</v>
+      </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr">
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1302,20 +1370,23 @@
       <c r="D23" t="n">
         <v>415</v>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>0.05</v>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr">
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
         <is>
           <t>CAD</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1330,20 +1401,23 @@
       <c r="D24" t="n">
         <v>415</v>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>0.05</v>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr">
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1358,20 +1432,23 @@
       <c r="D25" t="n">
         <v>415</v>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>0.05</v>
+      </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr">
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1386,20 +1463,23 @@
       <c r="D26" t="n">
         <v>23.333333</v>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>0.05</v>
+      </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr">
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
         <is>
           <t>GBP</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1414,20 +1494,23 @@
       <c r="D27" t="n">
         <v>43.333333</v>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>0.05</v>
+      </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr">
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
         <is>
           <t>GBP</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1442,20 +1525,23 @@
       <c r="D28" t="n">
         <v>76.66666600000001</v>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>0.05</v>
+      </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr">
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
         <is>
           <t>GBP</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1470,20 +1556,23 @@
       <c r="D29" t="n">
         <v>143.333333</v>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>0.05</v>
+      </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr">
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
         <is>
           <t>GBP</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1498,20 +1587,23 @@
       <c r="D30" t="n">
         <v>210</v>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>0.05</v>
+      </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr">
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
         <is>
           <t>GBP</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1526,20 +1618,23 @@
       <c r="D31" t="n">
         <v>276.666666</v>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>0.05</v>
+      </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr">
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
         <is>
           <t>GBP</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/examples/programs/aviation_axa_xl_2024.xlsx
+++ b/examples/programs/aviation_axa_xl_2024.xlsx
@@ -460,7 +460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,15 +493,15 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>XOL_1</t>
+          <t>QS_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>excess_of_loss</t>
+          <t>quota_share</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -513,11 +513,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>XOL_2</t>
+          <t>XOL_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -533,11 +533,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>XOL_3</t>
+          <t>XOL_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -553,11 +553,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>XOL_4</t>
+          <t>XOL_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -573,11 +573,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>XOL_5</t>
+          <t>XOL_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -593,18 +593,38 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>XOL_5</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>excess_of_loss</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>risk_attaching</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>XOL_6</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B8" t="n">
         <v>6</v>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>excess_of_loss</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>risk_attaching</t>
         </is>
@@ -621,7 +641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -709,18 +729,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>XOL_1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="n">
-        <v>65</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
+          <t>QS_1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0165</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>0.05</v>
+        <v>0.0165</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
@@ -740,18 +758,16 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>XOL_1</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="n">
-        <v>65</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
+          <t>QS_1</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0165</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>0.05</v>
+        <v>0.0165</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -771,18 +787,16 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>XOL_1</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="n">
-        <v>65</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
+          <t>QS_1</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0165</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>0.05</v>
+        <v>0.0165</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -802,18 +816,16 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>XOL_1</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="n">
-        <v>65</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
+          <t>QS_1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0165</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>0.05</v>
+        <v>0.0165</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -833,18 +845,16 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>XOL_2</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" t="n">
-        <v>65</v>
-      </c>
+          <t>QS_1</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.0165</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>0.05</v>
+        <v>0.0165</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -853,7 +863,7 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -864,15 +874,15 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>XOL_2</t>
+          <t>XOL_1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D7" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0.05</v>
@@ -884,7 +894,7 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="L7" t="inlineStr"/>
@@ -895,15 +905,15 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>XOL_2</t>
+          <t>XOL_1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D8" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0.05</v>
@@ -915,7 +925,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -926,15 +936,15 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>XOL_2</t>
+          <t>XOL_1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D9" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0.05</v>
@@ -946,7 +956,7 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>AUD</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -957,15 +967,15 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>XOL_3</t>
+          <t>XOL_1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="D10" t="n">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0.05</v>
@@ -977,7 +987,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>AUD</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -988,15 +998,15 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>XOL_3</t>
+          <t>XOL_2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D11" t="n">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="E11" t="n">
         <v>0.05</v>
@@ -1008,7 +1018,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1019,15 +1029,15 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>XOL_3</t>
+          <t>XOL_2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D12" t="n">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="E12" t="n">
         <v>0.05</v>
@@ -1039,7 +1049,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1050,15 +1060,15 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>XOL_3</t>
+          <t>XOL_2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D13" t="n">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="E13" t="n">
         <v>0.05</v>
@@ -1070,7 +1080,7 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>AUD</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1081,15 +1091,15 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>XOL_4</t>
+          <t>XOL_2</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D14" t="n">
-        <v>215</v>
+        <v>65</v>
       </c>
       <c r="E14" t="n">
         <v>0.05</v>
@@ -1101,7 +1111,7 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>AUD</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1112,7 +1122,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>XOL_4</t>
+          <t>XOL_3</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -1120,7 +1130,7 @@
         <v>100</v>
       </c>
       <c r="D15" t="n">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="E15" t="n">
         <v>0.05</v>
@@ -1132,7 +1142,7 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1143,7 +1153,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>XOL_4</t>
+          <t>XOL_3</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -1151,7 +1161,7 @@
         <v>100</v>
       </c>
       <c r="D16" t="n">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="E16" t="n">
         <v>0.05</v>
@@ -1163,7 +1173,7 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
@@ -1174,7 +1184,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>XOL_4</t>
+          <t>XOL_3</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -1182,7 +1192,7 @@
         <v>100</v>
       </c>
       <c r="D17" t="n">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="E17" t="n">
         <v>0.05</v>
@@ -1194,7 +1204,7 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>AUD</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="L17" t="inlineStr"/>
@@ -1205,7 +1215,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>XOL_5</t>
+          <t>XOL_3</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
@@ -1213,7 +1223,7 @@
         <v>100</v>
       </c>
       <c r="D18" t="n">
-        <v>315</v>
+        <v>115</v>
       </c>
       <c r="E18" t="n">
         <v>0.05</v>
@@ -1225,7 +1235,7 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>AUD</t>
         </is>
       </c>
       <c r="L18" t="inlineStr"/>
@@ -1236,7 +1246,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>XOL_5</t>
+          <t>XOL_4</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
@@ -1244,7 +1254,7 @@
         <v>100</v>
       </c>
       <c r="D19" t="n">
-        <v>315</v>
+        <v>215</v>
       </c>
       <c r="E19" t="n">
         <v>0.05</v>
@@ -1256,7 +1266,7 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="L19" t="inlineStr"/>
@@ -1267,7 +1277,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>XOL_5</t>
+          <t>XOL_4</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -1275,7 +1285,7 @@
         <v>100</v>
       </c>
       <c r="D20" t="n">
-        <v>315</v>
+        <v>215</v>
       </c>
       <c r="E20" t="n">
         <v>0.05</v>
@@ -1287,7 +1297,7 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="L20" t="inlineStr"/>
@@ -1298,7 +1308,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>XOL_5</t>
+          <t>XOL_4</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -1306,7 +1316,7 @@
         <v>100</v>
       </c>
       <c r="D21" t="n">
-        <v>315</v>
+        <v>215</v>
       </c>
       <c r="E21" t="n">
         <v>0.05</v>
@@ -1318,7 +1328,7 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>AUD</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="L21" t="inlineStr"/>
@@ -1329,15 +1339,15 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>XOL_6</t>
+          <t>XOL_4</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D22" t="n">
-        <v>415</v>
+        <v>215</v>
       </c>
       <c r="E22" t="n">
         <v>0.05</v>
@@ -1349,7 +1359,7 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>AUD</t>
         </is>
       </c>
       <c r="L22" t="inlineStr"/>
@@ -1360,15 +1370,15 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>XOL_6</t>
+          <t>XOL_5</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D23" t="n">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="E23" t="n">
         <v>0.05</v>
@@ -1380,7 +1390,7 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="L23" t="inlineStr"/>
@@ -1391,15 +1401,15 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>XOL_6</t>
+          <t>XOL_5</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D24" t="n">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="E24" t="n">
         <v>0.05</v>
@@ -1411,7 +1421,7 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="L24" t="inlineStr"/>
@@ -1422,15 +1432,15 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>XOL_6</t>
+          <t>XOL_5</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="D25" t="n">
-        <v>415</v>
+        <v>315</v>
       </c>
       <c r="E25" t="n">
         <v>0.05</v>
@@ -1442,7 +1452,7 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>AUD</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="L25" t="inlineStr"/>
@@ -1453,15 +1463,15 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>XOL_1</t>
+          <t>XOL_5</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>43.333333</v>
+        <v>100</v>
       </c>
       <c r="D26" t="n">
-        <v>23.333333</v>
+        <v>315</v>
       </c>
       <c r="E26" t="n">
         <v>0.05</v>
@@ -1473,7 +1483,7 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>AUD</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
@@ -1484,15 +1494,15 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>XOL_2</t>
+          <t>XOL_6</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>33.333333</v>
+        <v>150</v>
       </c>
       <c r="D27" t="n">
-        <v>43.333333</v>
+        <v>415</v>
       </c>
       <c r="E27" t="n">
         <v>0.05</v>
@@ -1504,7 +1514,7 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
@@ -1515,15 +1525,15 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>XOL_3</t>
+          <t>XOL_6</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
-        <v>66.66666600000001</v>
+        <v>150</v>
       </c>
       <c r="D28" t="n">
-        <v>76.66666600000001</v>
+        <v>415</v>
       </c>
       <c r="E28" t="n">
         <v>0.05</v>
@@ -1535,7 +1545,7 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="L28" t="inlineStr"/>
@@ -1546,15 +1556,15 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>XOL_4</t>
+          <t>XOL_6</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>66.66666600000001</v>
+        <v>150</v>
       </c>
       <c r="D29" t="n">
-        <v>143.333333</v>
+        <v>415</v>
       </c>
       <c r="E29" t="n">
         <v>0.05</v>
@@ -1566,7 +1576,7 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="L29" t="inlineStr"/>
@@ -1577,15 +1587,15 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>XOL_5</t>
+          <t>XOL_6</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
-        <v>66.66666600000001</v>
+        <v>150</v>
       </c>
       <c r="D30" t="n">
-        <v>210</v>
+        <v>415</v>
       </c>
       <c r="E30" t="n">
         <v>0.05</v>
@@ -1597,7 +1607,7 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>AUD</t>
         </is>
       </c>
       <c r="L30" t="inlineStr"/>
@@ -1608,15 +1618,15 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>XOL_6</t>
+          <t>XOL_1</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="n">
-        <v>100</v>
+        <v>43.333333</v>
       </c>
       <c r="D31" t="n">
-        <v>276.666666</v>
+        <v>23.333333</v>
       </c>
       <c r="E31" t="n">
         <v>0.05</v>
@@ -1636,6 +1646,161 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>XOL_2</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="n">
+        <v>33.333333</v>
+      </c>
+      <c r="D32" t="n">
+        <v>43.333333</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>XOL_3</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="n">
+        <v>66.66666600000001</v>
+      </c>
+      <c r="D33" t="n">
+        <v>76.66666600000001</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>XOL_4</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="n">
+        <v>66.66666600000001</v>
+      </c>
+      <c r="D34" t="n">
+        <v>143.333333</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>XOL_5</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="n">
+        <v>66.66666600000001</v>
+      </c>
+      <c r="D35" t="n">
+        <v>210</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>XOL_6</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="n">
+        <v>100</v>
+      </c>
+      <c r="D36" t="n">
+        <v>276.666666</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/examples/programs/aviation_axa_xl_2024.xlsx
+++ b/examples/programs/aviation_axa_xl_2024.xlsx
@@ -657,7 +657,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>session_rate</t>
+          <t>cession_rate</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -733,7 +733,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0165</v>
+        <v>0.25</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0165</v>
+        <v>0.25</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0165</v>
+        <v>0.25</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0165</v>
+        <v>0.25</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0165</v>
+        <v>0.25</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>

--- a/examples/programs/aviation_axa_xl_2024.xlsx
+++ b/examples/programs/aviation_axa_xl_2024.xlsx
@@ -476,12 +476,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>order</t>
+          <t>contract_order</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>product_type</t>
+          <t>type_of_participation</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -662,12 +662,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>priority</t>
+          <t>attachment_point_100</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>limit</t>
+          <t>limit_occurrence_100</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">

--- a/examples/programs/aviation_axa_xl_2024.xlsx
+++ b/examples/programs/aviation_axa_xl_2024.xlsx
@@ -657,7 +657,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>cession_rate</t>
+          <t>cession_PCT</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -879,10 +879,10 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
         <v>65</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0.05</v>
@@ -910,10 +910,10 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>65</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0.05</v>
@@ -941,10 +941,10 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
         <v>65</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0.05</v>
@@ -972,10 +972,10 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
         <v>65</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0.05</v>
@@ -1003,10 +1003,10 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
+        <v>65</v>
+      </c>
+      <c r="D11" t="n">
         <v>50</v>
-      </c>
-      <c r="D11" t="n">
-        <v>65</v>
       </c>
       <c r="E11" t="n">
         <v>0.05</v>
@@ -1034,10 +1034,10 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
+        <v>65</v>
+      </c>
+      <c r="D12" t="n">
         <v>50</v>
-      </c>
-      <c r="D12" t="n">
-        <v>65</v>
       </c>
       <c r="E12" t="n">
         <v>0.05</v>
@@ -1065,10 +1065,10 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
+        <v>65</v>
+      </c>
+      <c r="D13" t="n">
         <v>50</v>
-      </c>
-      <c r="D13" t="n">
-        <v>65</v>
       </c>
       <c r="E13" t="n">
         <v>0.05</v>
@@ -1096,10 +1096,10 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
+        <v>65</v>
+      </c>
+      <c r="D14" t="n">
         <v>50</v>
-      </c>
-      <c r="D14" t="n">
-        <v>65</v>
       </c>
       <c r="E14" t="n">
         <v>0.05</v>
@@ -1127,10 +1127,10 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
+        <v>115</v>
+      </c>
+      <c r="D15" t="n">
         <v>100</v>
-      </c>
-      <c r="D15" t="n">
-        <v>115</v>
       </c>
       <c r="E15" t="n">
         <v>0.05</v>
@@ -1158,10 +1158,10 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
+        <v>115</v>
+      </c>
+      <c r="D16" t="n">
         <v>100</v>
-      </c>
-      <c r="D16" t="n">
-        <v>115</v>
       </c>
       <c r="E16" t="n">
         <v>0.05</v>
@@ -1189,10 +1189,10 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
+        <v>115</v>
+      </c>
+      <c r="D17" t="n">
         <v>100</v>
-      </c>
-      <c r="D17" t="n">
-        <v>115</v>
       </c>
       <c r="E17" t="n">
         <v>0.05</v>
@@ -1220,10 +1220,10 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
+        <v>115</v>
+      </c>
+      <c r="D18" t="n">
         <v>100</v>
-      </c>
-      <c r="D18" t="n">
-        <v>115</v>
       </c>
       <c r="E18" t="n">
         <v>0.05</v>
@@ -1251,10 +1251,10 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
+        <v>215</v>
+      </c>
+      <c r="D19" t="n">
         <v>100</v>
-      </c>
-      <c r="D19" t="n">
-        <v>215</v>
       </c>
       <c r="E19" t="n">
         <v>0.05</v>
@@ -1282,10 +1282,10 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
+        <v>215</v>
+      </c>
+      <c r="D20" t="n">
         <v>100</v>
-      </c>
-      <c r="D20" t="n">
-        <v>215</v>
       </c>
       <c r="E20" t="n">
         <v>0.05</v>
@@ -1313,10 +1313,10 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
+        <v>215</v>
+      </c>
+      <c r="D21" t="n">
         <v>100</v>
-      </c>
-      <c r="D21" t="n">
-        <v>215</v>
       </c>
       <c r="E21" t="n">
         <v>0.05</v>
@@ -1344,10 +1344,10 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
+        <v>215</v>
+      </c>
+      <c r="D22" t="n">
         <v>100</v>
-      </c>
-      <c r="D22" t="n">
-        <v>215</v>
       </c>
       <c r="E22" t="n">
         <v>0.05</v>
@@ -1375,10 +1375,10 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
+        <v>315</v>
+      </c>
+      <c r="D23" t="n">
         <v>100</v>
-      </c>
-      <c r="D23" t="n">
-        <v>315</v>
       </c>
       <c r="E23" t="n">
         <v>0.05</v>
@@ -1406,10 +1406,10 @@
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
+        <v>315</v>
+      </c>
+      <c r="D24" t="n">
         <v>100</v>
-      </c>
-      <c r="D24" t="n">
-        <v>315</v>
       </c>
       <c r="E24" t="n">
         <v>0.05</v>
@@ -1437,10 +1437,10 @@
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
+        <v>315</v>
+      </c>
+      <c r="D25" t="n">
         <v>100</v>
-      </c>
-      <c r="D25" t="n">
-        <v>315</v>
       </c>
       <c r="E25" t="n">
         <v>0.05</v>
@@ -1468,10 +1468,10 @@
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
+        <v>315</v>
+      </c>
+      <c r="D26" t="n">
         <v>100</v>
-      </c>
-      <c r="D26" t="n">
-        <v>315</v>
       </c>
       <c r="E26" t="n">
         <v>0.05</v>
@@ -1499,10 +1499,10 @@
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
+        <v>415</v>
+      </c>
+      <c r="D27" t="n">
         <v>150</v>
-      </c>
-      <c r="D27" t="n">
-        <v>415</v>
       </c>
       <c r="E27" t="n">
         <v>0.05</v>
@@ -1530,10 +1530,10 @@
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
+        <v>415</v>
+      </c>
+      <c r="D28" t="n">
         <v>150</v>
-      </c>
-      <c r="D28" t="n">
-        <v>415</v>
       </c>
       <c r="E28" t="n">
         <v>0.05</v>
@@ -1561,10 +1561,10 @@
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
+        <v>415</v>
+      </c>
+      <c r="D29" t="n">
         <v>150</v>
-      </c>
-      <c r="D29" t="n">
-        <v>415</v>
       </c>
       <c r="E29" t="n">
         <v>0.05</v>
@@ -1592,10 +1592,10 @@
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
+        <v>415</v>
+      </c>
+      <c r="D30" t="n">
         <v>150</v>
-      </c>
-      <c r="D30" t="n">
-        <v>415</v>
       </c>
       <c r="E30" t="n">
         <v>0.05</v>
@@ -1623,10 +1623,10 @@
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="n">
+        <v>23.333333</v>
+      </c>
+      <c r="D31" t="n">
         <v>43.333333</v>
-      </c>
-      <c r="D31" t="n">
-        <v>23.333333</v>
       </c>
       <c r="E31" t="n">
         <v>0.05</v>
@@ -1654,10 +1654,10 @@
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="n">
+        <v>43.333333</v>
+      </c>
+      <c r="D32" t="n">
         <v>33.333333</v>
-      </c>
-      <c r="D32" t="n">
-        <v>43.333333</v>
       </c>
       <c r="E32" t="n">
         <v>0.05</v>
@@ -1685,10 +1685,10 @@
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="n">
+        <v>76.66666600000001</v>
+      </c>
+      <c r="D33" t="n">
         <v>66.66666600000001</v>
-      </c>
-      <c r="D33" t="n">
-        <v>76.66666600000001</v>
       </c>
       <c r="E33" t="n">
         <v>0.05</v>
@@ -1716,10 +1716,10 @@
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="n">
+        <v>143.333333</v>
+      </c>
+      <c r="D34" t="n">
         <v>66.66666600000001</v>
-      </c>
-      <c r="D34" t="n">
-        <v>143.333333</v>
       </c>
       <c r="E34" t="n">
         <v>0.05</v>
@@ -1747,10 +1747,10 @@
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
+        <v>210</v>
+      </c>
+      <c r="D35" t="n">
         <v>66.66666600000001</v>
-      </c>
-      <c r="D35" t="n">
-        <v>210</v>
       </c>
       <c r="E35" t="n">
         <v>0.05</v>
@@ -1778,10 +1778,10 @@
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="n">
+        <v>276.666666</v>
+      </c>
+      <c r="D36" t="n">
         <v>100</v>
-      </c>
-      <c r="D36" t="n">
-        <v>276.666666</v>
       </c>
       <c r="E36" t="n">
         <v>0.05</v>

--- a/examples/programs/aviation_axa_xl_2024.xlsx
+++ b/examples/programs/aviation_axa_xl_2024.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,16 +438,98 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>program_name</t>
+          <t>REPROG_ID_PRE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>REPROG_TITLE</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>CED_ID_PRE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CED_NAME_PRE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>REPROG_ACTIVE_IND</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>REPROG_COMMENT</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>REPROG_UW_DEPARTMENT_CD</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>REPROG_UW_DEPARTMENT_NAME</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>REPROG_UW_DEPARTMENT_LOB_CD</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>REPROG_UW_DEPARTMENT_LOB_NAME</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>BUSPAR_CED_REG_CLASS_CD</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>BUSPAR_CED_REG_CLASS_NAME</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>REPROG_MAIN_CURRENCY_CD</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>REPROG_MANAGEMENT_REPORTING_LOB_CD</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>AVIATION_AXA_XL_2024</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/examples/programs/aviation_axa_xl_2024.xlsx
+++ b/examples/programs/aviation_axa_xl_2024.xlsx
@@ -542,7 +542,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:T8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,164 +553,398 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>structure_name</t>
+          <t>INSPER_ID_PRE</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>contract_order</t>
+          <t>BUSINESS_ID_PRE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>type_of_participation</t>
+          <t>TYPE_OF_PARTICIPATION_CD</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>claim_basis</t>
+          <t>TYPE_OF_INSURED_PERIOD_CD</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ACTIVE_FLAG_CD</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>INSPER_EFFECTIVE_DATE</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>INSPER_EXPIRY_DATE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>REPROG_ID_PRE</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>BUSINESS_TITLE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>INSPER_LAYER_NO</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>INSPER_MAIN_CURRENCY_CD</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>INSPER_UW_YEAR</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>INSPER_CONTRACT_ORDER</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>INSPER_CONTRACT_FORM_CD_SLAV</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>INSPER_CONTRACT_LODRA_CD_SLAV</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>INSPER_CONTRACT_COVERAGE_CD_SLAV</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>INSPER_CLAIM_BASIS_CD</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>INSPER_LODRA_CD_SLAV</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>INSPER_LOD_TO_RA_DATE_SLAV</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>INSPER_COMMENT</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>quota_share</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>QS_1</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>quota_share</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>risk_attaching</t>
         </is>
       </c>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>excess_of_loss</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>XOL_1</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>risk_attaching</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
         <is>
           <t>excess_of_loss</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>XOL_2</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr">
         <is>
           <t>risk_attaching</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>XOL_2</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
         <is>
           <t>excess_of_loss</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>XOL_3</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>risk_attaching</t>
         </is>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>XOL_3</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
         <is>
           <t>excess_of_loss</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>XOL_4</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>risk_attaching</t>
         </is>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>XOL_4</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
         <is>
           <t>excess_of_loss</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>XOL_5</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>risk_attaching</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>XOL_5</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
         <is>
           <t>excess_of_loss</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>XOL_6</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>6</v>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>risk_attaching</t>
         </is>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>XOL_6</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>excess_of_loss</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>risk_attaching</t>
-        </is>
-      </c>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -734,7 +968,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>structure_name</t>
+          <t>BUSINESS_TITLE</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/examples/programs/aviation_axa_xl_2024.xlsx
+++ b/examples/programs/aviation_axa_xl_2024.xlsx
@@ -957,7 +957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:AL36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -968,1154 +968,2144 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>BUSINESS_TITLE</t>
+          <t>BUSCL_ID_PRE</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>cession_PCT</t>
+          <t>REPROG_ID_PRE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>attachment_point_100</t>
+          <t>CED_ID_PRE</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>limit_occurrence_100</t>
+          <t>BUSINESS_ID_PRE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reinsurer_share</t>
+          <t>INSPER_ID_PRE</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>country</t>
+          <t>BUSCL_EXCLUDE_CD</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>region</t>
+          <t>BUSCL_ENTITY_NAME_CED</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>product_type_1</t>
+          <t>POL_RISK_NAME_CED</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>product_type_2</t>
+          <t>BUSCL_COUNTRY_CD</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>product_type_3</t>
+          <t>BUSCL_COUNTRY</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>currency</t>
+          <t>BUSCL_REGION</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>line_of_business</t>
+          <t>BUSCL_CLASS_OF_BUSINESS_1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>BUSCL_CLASS_OF_BUSINESS_2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>sic_code</t>
+          <t>BUSCL_CLASS_OF_BUSINESS_3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>include</t>
+          <t>BUSCL_LIMIT_CURRENCY_CD</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>AAD_100</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>LIMIT_100</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>LIMIT_FLOATER_100</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>ATTACHMENT_POINT_100</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>OLW_100</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>LIMIT_OCCURRENCE_100</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>LIMIT_AGG_100</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>CESSION_PCT</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>RETENTION_PCT</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>SUPI_100</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>BUSCL_PREMIUM_CURRENCY_CD</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>BUSCL_PREMIUM_GROSS_NET_CD</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>PREMIUM_RATE_PCT</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>PREMIUM_DEPOSIT_100</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>PREMIUM_MIN_100</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>BUSCL_LIABILITY_1_LINE_100</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>MAX_COVER_PCT</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>MIN_EXCESS_PCT</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>SIGNED_SHARE_PCT</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>AVERAGE_LINE_SLAV_CED</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>PML_DEFAULT_PCT</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>LIMIT_EVENT</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>NO_OF_REINSTATEMENTS</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>QS_1</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>0.0165</v>
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="n">
+        <v>0.0165</v>
+      </c>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>QS_1</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>0.0165</v>
+        <v>1</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="n">
+        <v>0.0165</v>
+      </c>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>QS_1</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
-        <v>0.0165</v>
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="n">
+        <v>0.0165</v>
+      </c>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>QS_1</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
-        <v>0.0165</v>
+        <v>1</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="n">
+        <v>0.0165</v>
+      </c>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>QS_1</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>0.0165</v>
+        <v>1</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="n">
+        <v>0.0165</v>
+      </c>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>XOL_1</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>65</v>
-      </c>
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="n">
+        <v>65</v>
+      </c>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>XOL_1</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>65</v>
-      </c>
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="n">
+        <v>65</v>
+      </c>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>XOL_1</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>65</v>
-      </c>
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="n">
+        <v>65</v>
+      </c>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>XOL_1</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>65</v>
-      </c>
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="n">
+        <v>65</v>
+      </c>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>XOL_2</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="n">
-        <v>65</v>
-      </c>
-      <c r="D11" t="n">
-        <v>50</v>
-      </c>
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.05</v>
+        <v>3</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="n">
+        <v>65</v>
+      </c>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="n">
+        <v>50</v>
+      </c>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>XOL_2</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="n">
-        <v>65</v>
-      </c>
-      <c r="D12" t="n">
-        <v>50</v>
-      </c>
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>0.05</v>
+        <v>3</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="n">
+        <v>65</v>
+      </c>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="n">
+        <v>50</v>
+      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>XOL_2</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="n">
-        <v>65</v>
-      </c>
-      <c r="D13" t="n">
-        <v>50</v>
-      </c>
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>0.05</v>
+        <v>3</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="n">
+        <v>65</v>
+      </c>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="n">
+        <v>50</v>
+      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>XOL_2</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="n">
-        <v>65</v>
-      </c>
-      <c r="D14" t="n">
-        <v>50</v>
-      </c>
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>0.05</v>
+        <v>3</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="n">
+        <v>65</v>
+      </c>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="n">
+        <v>50</v>
+      </c>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>XOL_3</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="n">
-        <v>115</v>
-      </c>
-      <c r="D15" t="n">
-        <v>100</v>
-      </c>
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
-        <v>0.05</v>
+        <v>4</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="n">
+        <v>115</v>
+      </c>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="n">
+        <v>100</v>
+      </c>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>XOL_3</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="n">
-        <v>115</v>
-      </c>
-      <c r="D16" t="n">
-        <v>100</v>
-      </c>
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
-        <v>0.05</v>
+        <v>4</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="n">
+        <v>115</v>
+      </c>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="n">
+        <v>100</v>
+      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>XOL_3</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="n">
-        <v>115</v>
-      </c>
-      <c r="D17" t="n">
-        <v>100</v>
-      </c>
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>0.05</v>
+        <v>4</v>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="n">
+        <v>115</v>
+      </c>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="n">
+        <v>100</v>
+      </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>XOL_3</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="n">
-        <v>115</v>
-      </c>
-      <c r="D18" t="n">
-        <v>100</v>
-      </c>
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>0.05</v>
+        <v>4</v>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="n">
+        <v>115</v>
+      </c>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="n">
+        <v>100</v>
+      </c>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>XOL_4</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="n">
-        <v>215</v>
-      </c>
-      <c r="D19" t="n">
-        <v>100</v>
-      </c>
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="n">
+        <v>215</v>
+      </c>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="n">
+        <v>100</v>
+      </c>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>XOL_4</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="n">
-        <v>215</v>
-      </c>
-      <c r="D20" t="n">
-        <v>100</v>
-      </c>
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="n">
+        <v>215</v>
+      </c>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="n">
+        <v>100</v>
+      </c>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>XOL_4</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="n">
-        <v>215</v>
-      </c>
-      <c r="D21" t="n">
-        <v>100</v>
-      </c>
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="n">
+        <v>215</v>
+      </c>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="n">
+        <v>100</v>
+      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>XOL_4</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="n">
-        <v>215</v>
-      </c>
-      <c r="D22" t="n">
-        <v>100</v>
-      </c>
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="n">
+        <v>215</v>
+      </c>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="n">
+        <v>100</v>
+      </c>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>XOL_5</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="n">
-        <v>315</v>
-      </c>
-      <c r="D23" t="n">
-        <v>100</v>
-      </c>
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>0.05</v>
+        <v>6</v>
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="n">
+        <v>315</v>
+      </c>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="n">
+        <v>100</v>
+      </c>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>XOL_5</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="n">
-        <v>315</v>
-      </c>
-      <c r="D24" t="n">
-        <v>100</v>
-      </c>
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>0.05</v>
+        <v>6</v>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="n">
+        <v>315</v>
+      </c>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="n">
+        <v>100</v>
+      </c>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>XOL_5</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="n">
-        <v>315</v>
-      </c>
-      <c r="D25" t="n">
-        <v>100</v>
-      </c>
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>0.05</v>
+        <v>6</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="n">
+        <v>315</v>
+      </c>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="n">
+        <v>100</v>
+      </c>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>XOL_5</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="n">
-        <v>315</v>
-      </c>
-      <c r="D26" t="n">
-        <v>100</v>
-      </c>
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>0.05</v>
+        <v>6</v>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="n">
+        <v>315</v>
+      </c>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="n">
+        <v>100</v>
+      </c>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>XOL_6</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="n">
-        <v>415</v>
-      </c>
-      <c r="D27" t="n">
-        <v>150</v>
-      </c>
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>0.05</v>
+        <v>7</v>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>USD</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="n">
+        <v>415</v>
+      </c>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="n">
+        <v>150</v>
+      </c>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AI27" t="inlineStr"/>
+      <c r="AJ27" t="inlineStr"/>
+      <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>XOL_6</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="n">
-        <v>415</v>
-      </c>
-      <c r="D28" t="n">
-        <v>150</v>
-      </c>
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
-        <v>0.05</v>
+        <v>7</v>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>CAD</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>CAD</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="n">
+        <v>415</v>
+      </c>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="n">
+        <v>150</v>
+      </c>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="inlineStr"/>
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>XOL_6</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="n">
-        <v>415</v>
-      </c>
-      <c r="D29" t="n">
-        <v>150</v>
-      </c>
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>0.05</v>
+        <v>7</v>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>EUR</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="n">
+        <v>415</v>
+      </c>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="n">
+        <v>150</v>
+      </c>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="inlineStr"/>
+      <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>XOL_6</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="n">
-        <v>415</v>
-      </c>
-      <c r="D30" t="n">
-        <v>150</v>
-      </c>
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>0.05</v>
+        <v>7</v>
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>AUD</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>AUD</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="n">
+        <v>415</v>
+      </c>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="n">
+        <v>150</v>
+      </c>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>XOL_1</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="n">
-        <v>23.333333</v>
-      </c>
-      <c r="D31" t="n">
-        <v>43.333333</v>
-      </c>
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="n">
+        <v>23.333333</v>
+      </c>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="n">
+        <v>43.333333</v>
+      </c>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="inlineStr"/>
+      <c r="AH31" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AI31" t="inlineStr"/>
+      <c r="AJ31" t="inlineStr"/>
+      <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>XOL_2</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="n">
-        <v>43.333333</v>
-      </c>
-      <c r="D32" t="n">
-        <v>33.333333</v>
-      </c>
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>0.05</v>
+        <v>3</v>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="n">
+        <v>43.333333</v>
+      </c>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="n">
+        <v>33.333333</v>
+      </c>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="inlineStr"/>
+      <c r="AH32" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AI32" t="inlineStr"/>
+      <c r="AJ32" t="inlineStr"/>
+      <c r="AK32" t="inlineStr"/>
+      <c r="AL32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>XOL_3</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="n">
-        <v>76.66666600000001</v>
-      </c>
-      <c r="D33" t="n">
-        <v>66.66666600000001</v>
-      </c>
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
-        <v>0.05</v>
+        <v>4</v>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="n">
+        <v>76.66666600000001</v>
+      </c>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="n">
+        <v>66.66666600000001</v>
+      </c>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr"/>
+      <c r="AH33" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AI33" t="inlineStr"/>
+      <c r="AJ33" t="inlineStr"/>
+      <c r="AK33" t="inlineStr"/>
+      <c r="AL33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>XOL_4</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="n">
-        <v>143.333333</v>
-      </c>
-      <c r="D34" t="n">
-        <v>66.66666600000001</v>
-      </c>
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="n">
+        <v>143.333333</v>
+      </c>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="n">
+        <v>66.66666600000001</v>
+      </c>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="inlineStr"/>
+      <c r="AH34" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AI34" t="inlineStr"/>
+      <c r="AJ34" t="inlineStr"/>
+      <c r="AK34" t="inlineStr"/>
+      <c r="AL34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>XOL_5</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="n">
-        <v>210</v>
-      </c>
-      <c r="D35" t="n">
-        <v>66.66666600000001</v>
-      </c>
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
-        <v>0.05</v>
+        <v>6</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="n">
+        <v>210</v>
+      </c>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="n">
+        <v>66.66666600000001</v>
+      </c>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="inlineStr"/>
+      <c r="AH35" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AI35" t="inlineStr"/>
+      <c r="AJ35" t="inlineStr"/>
+      <c r="AK35" t="inlineStr"/>
+      <c r="AL35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>XOL_6</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="n">
-        <v>276.666666</v>
-      </c>
-      <c r="D36" t="n">
-        <v>100</v>
-      </c>
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
-        <v>0.05</v>
+        <v>7</v>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>GBP</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>GBP</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="n">
+        <v>276.666666</v>
+      </c>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="n">
+        <v>100</v>
+      </c>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr"/>
+      <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="inlineStr"/>
+      <c r="AH36" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AI36" t="inlineStr"/>
+      <c r="AJ36" t="inlineStr"/>
+      <c r="AK36" t="inlineStr"/>
+      <c r="AL36" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/examples/programs/aviation_axa_xl_2024.xlsx
+++ b/examples/programs/aviation_axa_xl_2024.xlsx
@@ -434,6 +434,22 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="19" customWidth="1" min="5" max="5"/>
+    <col width="16" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="27" customWidth="1" min="8" max="8"/>
+    <col width="29" customWidth="1" min="9" max="9"/>
+    <col width="31" customWidth="1" min="10" max="10"/>
+    <col width="25" customWidth="1" min="11" max="11"/>
+    <col width="27" customWidth="1" min="12" max="12"/>
+    <col width="25" customWidth="1" min="13" max="13"/>
+    <col width="36" customWidth="1" min="14" max="14"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -516,20 +532,9 @@
           <t>AVIATION_AXA_XL_2024</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -549,6 +554,28 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="17" customWidth="1" min="2" max="2"/>
+    <col width="26" customWidth="1" min="3" max="3"/>
+    <col width="27" customWidth="1" min="4" max="4"/>
+    <col width="16" customWidth="1" min="5" max="5"/>
+    <col width="23" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="16" customWidth="1" min="9" max="9"/>
+    <col width="17" customWidth="1" min="10" max="10"/>
+    <col width="25" customWidth="1" min="11" max="11"/>
+    <col width="16" customWidth="1" min="12" max="12"/>
+    <col width="23" customWidth="1" min="13" max="13"/>
+    <col width="30" customWidth="1" min="14" max="14"/>
+    <col width="31" customWidth="1" min="15" max="15"/>
+    <col width="34" customWidth="1" min="16" max="16"/>
+    <col width="23" customWidth="1" min="17" max="17"/>
+    <col width="22" customWidth="1" min="18" max="18"/>
+    <col width="28" customWidth="1" min="19" max="19"/>
+    <col width="16" customWidth="1" min="20" max="20"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -656,18 +683,14 @@
       <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>quota_share</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
         <v>1</v>
       </c>
@@ -676,40 +699,27 @@
           <t>QS_1</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>0</v>
       </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
           <t>risk_attaching</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>excess_of_loss</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="b">
         <v>1</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
         <v>1</v>
       </c>
@@ -718,40 +728,27 @@
           <t>XOL_1</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
           <t>risk_attaching</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>excess_of_loss</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="b">
         <v>1</v>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
         <v>1</v>
       </c>
@@ -760,40 +757,27 @@
           <t>XOL_2</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>2</v>
       </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
           <t>risk_attaching</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>excess_of_loss</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="b">
         <v>1</v>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
         <v>1</v>
       </c>
@@ -802,40 +786,27 @@
           <t>XOL_3</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>3</v>
       </c>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
           <t>risk_attaching</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>excess_of_loss</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="b">
         <v>1</v>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
         <v>1</v>
       </c>
@@ -844,40 +815,27 @@
           <t>XOL_4</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>4</v>
       </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
           <t>risk_attaching</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>excess_of_loss</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="b">
         <v>1</v>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
         <v>1</v>
       </c>
@@ -886,40 +844,27 @@
           <t>XOL_5</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>5</v>
       </c>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
           <t>risk_attaching</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>excess_of_loss</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="b">
         <v>1</v>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
         <v>1</v>
       </c>
@@ -928,23 +873,14 @@
           <t>XOL_6</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>6</v>
       </c>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
           <t>risk_attaching</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -964,6 +900,46 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="17" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="23" customWidth="1" min="7" max="7"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="27" customWidth="1" min="12" max="12"/>
+    <col width="27" customWidth="1" min="13" max="13"/>
+    <col width="27" customWidth="1" min="14" max="14"/>
+    <col width="25" customWidth="1" min="15" max="15"/>
+    <col width="10" customWidth="1" min="16" max="16"/>
+    <col width="11" customWidth="1" min="17" max="17"/>
+    <col width="19" customWidth="1" min="18" max="18"/>
+    <col width="22" customWidth="1" min="19" max="19"/>
+    <col width="10" customWidth="1" min="20" max="20"/>
+    <col width="22" customWidth="1" min="21" max="21"/>
+    <col width="15" customWidth="1" min="22" max="22"/>
+    <col width="13" customWidth="1" min="23" max="23"/>
+    <col width="15" customWidth="1" min="24" max="24"/>
+    <col width="10" customWidth="1" min="25" max="25"/>
+    <col width="27" customWidth="1" min="26" max="26"/>
+    <col width="28" customWidth="1" min="27" max="27"/>
+    <col width="18" customWidth="1" min="28" max="28"/>
+    <col width="21" customWidth="1" min="29" max="29"/>
+    <col width="17" customWidth="1" min="30" max="30"/>
+    <col width="28" customWidth="1" min="31" max="31"/>
+    <col width="15" customWidth="1" min="32" max="32"/>
+    <col width="16" customWidth="1" min="33" max="33"/>
+    <col width="18" customWidth="1" min="34" max="34"/>
+    <col width="23" customWidth="1" min="35" max="35"/>
+    <col width="17" customWidth="1" min="36" max="36"/>
+    <col width="13" customWidth="1" min="37" max="37"/>
+    <col width="22" customWidth="1" min="38" max="38"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1164,52 +1140,20 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
       <c r="W2" t="n">
         <v>0.25</v>
       </c>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
       <c r="AH2" t="n">
         <v>0.0165</v>
       </c>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1218,52 +1162,20 @@
       <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
           <t>CAD</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
       <c r="W3" t="n">
         <v>0.25</v>
       </c>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="n">
         <v>0.0165</v>
       </c>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1272,52 +1184,20 @@
       <c r="B4" t="n">
         <v>1</v>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
       <c r="W4" t="n">
         <v>0.25</v>
       </c>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="n">
         <v>0.0165</v>
       </c>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1326,52 +1206,20 @@
       <c r="B5" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
       <c r="W5" t="n">
         <v>0.25</v>
       </c>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="n">
         <v>0.0165</v>
       </c>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1380,52 +1228,20 @@
       <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
           <t>GBP</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
       <c r="W6" t="n">
         <v>0.25</v>
       </c>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="n">
         <v>0.0165</v>
       </c>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1434,54 +1250,23 @@
       <c r="B7" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
         <v>2</v>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
       <c r="S7" t="n">
         <v>0</v>
       </c>
-      <c r="T7" t="inlineStr"/>
       <c r="U7" t="n">
         <v>65</v>
       </c>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="n">
         <v>0.05</v>
       </c>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1490,54 +1275,23 @@
       <c r="B8" t="n">
         <v>1</v>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
         <v>2</v>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
           <t>CAD</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
         <v>0</v>
       </c>
-      <c r="T8" t="inlineStr"/>
       <c r="U8" t="n">
         <v>65</v>
       </c>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="n">
         <v>0.05</v>
       </c>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1546,54 +1300,23 @@
       <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
         <v>2</v>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
       <c r="S9" t="n">
         <v>0</v>
       </c>
-      <c r="T9" t="inlineStr"/>
       <c r="U9" t="n">
         <v>65</v>
       </c>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="n">
         <v>0.05</v>
       </c>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1602,54 +1325,23 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
         <v>2</v>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
         <v>0</v>
       </c>
-      <c r="T10" t="inlineStr"/>
       <c r="U10" t="n">
         <v>65</v>
       </c>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="n">
         <v>0.05</v>
       </c>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1658,54 +1350,23 @@
       <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
         <v>3</v>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
       <c r="S11" t="n">
         <v>65</v>
       </c>
-      <c r="T11" t="inlineStr"/>
       <c r="U11" t="n">
         <v>50</v>
       </c>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="n">
         <v>0.05</v>
       </c>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1714,54 +1375,23 @@
       <c r="B12" t="n">
         <v>1</v>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
         <v>3</v>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
           <t>CAD</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
         <v>65</v>
       </c>
-      <c r="T12" t="inlineStr"/>
       <c r="U12" t="n">
         <v>50</v>
       </c>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
       <c r="AH12" t="n">
         <v>0.05</v>
       </c>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
-      <c r="AL12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1770,54 +1400,23 @@
       <c r="B13" t="n">
         <v>1</v>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
         <v>3</v>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
       <c r="S13" t="n">
         <v>65</v>
       </c>
-      <c r="T13" t="inlineStr"/>
       <c r="U13" t="n">
         <v>50</v>
       </c>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
       <c r="AH13" t="n">
         <v>0.05</v>
       </c>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1826,54 +1425,23 @@
       <c r="B14" t="n">
         <v>1</v>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
         <v>3</v>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
       <c r="S14" t="n">
         <v>65</v>
       </c>
-      <c r="T14" t="inlineStr"/>
       <c r="U14" t="n">
         <v>50</v>
       </c>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
       <c r="AH14" t="n">
         <v>0.05</v>
       </c>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1882,54 +1450,23 @@
       <c r="B15" t="n">
         <v>1</v>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
         <v>4</v>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
       <c r="S15" t="n">
         <v>115</v>
       </c>
-      <c r="T15" t="inlineStr"/>
       <c r="U15" t="n">
         <v>100</v>
       </c>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
       <c r="AH15" t="n">
         <v>0.05</v>
       </c>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1938,54 +1475,23 @@
       <c r="B16" t="n">
         <v>1</v>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
         <v>4</v>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
           <t>CAD</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
       <c r="S16" t="n">
         <v>115</v>
       </c>
-      <c r="T16" t="inlineStr"/>
       <c r="U16" t="n">
         <v>100</v>
       </c>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
       <c r="AH16" t="n">
         <v>0.05</v>
       </c>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
-      <c r="AL16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1994,54 +1500,23 @@
       <c r="B17" t="n">
         <v>1</v>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
         <v>4</v>
       </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
       <c r="S17" t="n">
         <v>115</v>
       </c>
-      <c r="T17" t="inlineStr"/>
       <c r="U17" t="n">
         <v>100</v>
       </c>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr"/>
       <c r="AH17" t="n">
         <v>0.05</v>
       </c>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
-      <c r="AL17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2050,54 +1525,23 @@
       <c r="B18" t="n">
         <v>1</v>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
         <v>4</v>
       </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
       <c r="S18" t="n">
         <v>115</v>
       </c>
-      <c r="T18" t="inlineStr"/>
       <c r="U18" t="n">
         <v>100</v>
       </c>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr"/>
       <c r="AH18" t="n">
         <v>0.05</v>
       </c>
-      <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
-      <c r="AL18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2106,54 +1550,23 @@
       <c r="B19" t="n">
         <v>1</v>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
         <v>5</v>
       </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
       <c r="S19" t="n">
         <v>215</v>
       </c>
-      <c r="T19" t="inlineStr"/>
       <c r="U19" t="n">
         <v>100</v>
       </c>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="inlineStr"/>
       <c r="AH19" t="n">
         <v>0.05</v>
       </c>
-      <c r="AI19" t="inlineStr"/>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
-      <c r="AL19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2162,54 +1575,23 @@
       <c r="B20" t="n">
         <v>1</v>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
         <v>5</v>
       </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
           <t>CAD</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
       <c r="S20" t="n">
         <v>215</v>
       </c>
-      <c r="T20" t="inlineStr"/>
       <c r="U20" t="n">
         <v>100</v>
       </c>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="inlineStr"/>
-      <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="inlineStr"/>
       <c r="AH20" t="n">
         <v>0.05</v>
       </c>
-      <c r="AI20" t="inlineStr"/>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
-      <c r="AL20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2218,54 +1600,23 @@
       <c r="B21" t="n">
         <v>1</v>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
         <v>5</v>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
       <c r="S21" t="n">
         <v>215</v>
       </c>
-      <c r="T21" t="inlineStr"/>
       <c r="U21" t="n">
         <v>100</v>
       </c>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr"/>
-      <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr"/>
-      <c r="AG21" t="inlineStr"/>
       <c r="AH21" t="n">
         <v>0.05</v>
       </c>
-      <c r="AI21" t="inlineStr"/>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
-      <c r="AL21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2274,54 +1625,23 @@
       <c r="B22" t="n">
         <v>1</v>
       </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
         <v>5</v>
       </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
       <c r="S22" t="n">
         <v>215</v>
       </c>
-      <c r="T22" t="inlineStr"/>
       <c r="U22" t="n">
         <v>100</v>
       </c>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="inlineStr"/>
-      <c r="AD22" t="inlineStr"/>
-      <c r="AE22" t="inlineStr"/>
-      <c r="AF22" t="inlineStr"/>
-      <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="n">
         <v>0.05</v>
       </c>
-      <c r="AI22" t="inlineStr"/>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
-      <c r="AL22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2330,54 +1650,23 @@
       <c r="B23" t="n">
         <v>1</v>
       </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
         <v>6</v>
       </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
       <c r="S23" t="n">
         <v>315</v>
       </c>
-      <c r="T23" t="inlineStr"/>
       <c r="U23" t="n">
         <v>100</v>
       </c>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="inlineStr"/>
-      <c r="AC23" t="inlineStr"/>
-      <c r="AD23" t="inlineStr"/>
-      <c r="AE23" t="inlineStr"/>
-      <c r="AF23" t="inlineStr"/>
-      <c r="AG23" t="inlineStr"/>
       <c r="AH23" t="n">
         <v>0.05</v>
       </c>
-      <c r="AI23" t="inlineStr"/>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
-      <c r="AL23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2386,54 +1675,23 @@
       <c r="B24" t="n">
         <v>1</v>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="n">
         <v>6</v>
       </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
           <t>CAD</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
       <c r="S24" t="n">
         <v>315</v>
       </c>
-      <c r="T24" t="inlineStr"/>
       <c r="U24" t="n">
         <v>100</v>
       </c>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="inlineStr"/>
-      <c r="AG24" t="inlineStr"/>
       <c r="AH24" t="n">
         <v>0.05</v>
       </c>
-      <c r="AI24" t="inlineStr"/>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
-      <c r="AL24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2442,54 +1700,23 @@
       <c r="B25" t="n">
         <v>1</v>
       </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
         <v>6</v>
       </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
       <c r="S25" t="n">
         <v>315</v>
       </c>
-      <c r="T25" t="inlineStr"/>
       <c r="U25" t="n">
         <v>100</v>
       </c>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr"/>
-      <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="inlineStr"/>
-      <c r="AE25" t="inlineStr"/>
-      <c r="AF25" t="inlineStr"/>
-      <c r="AG25" t="inlineStr"/>
       <c r="AH25" t="n">
         <v>0.05</v>
       </c>
-      <c r="AI25" t="inlineStr"/>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
-      <c r="AL25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2498,54 +1725,23 @@
       <c r="B26" t="n">
         <v>1</v>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
         <v>6</v>
       </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
       <c r="S26" t="n">
         <v>315</v>
       </c>
-      <c r="T26" t="inlineStr"/>
       <c r="U26" t="n">
         <v>100</v>
       </c>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="inlineStr"/>
-      <c r="AE26" t="inlineStr"/>
-      <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="inlineStr"/>
       <c r="AH26" t="n">
         <v>0.05</v>
       </c>
-      <c r="AI26" t="inlineStr"/>
-      <c r="AJ26" t="inlineStr"/>
-      <c r="AK26" t="inlineStr"/>
-      <c r="AL26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2554,54 +1750,23 @@
       <c r="B27" t="n">
         <v>1</v>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
         <v>7</v>
       </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
           <t>USD</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
       <c r="S27" t="n">
         <v>415</v>
       </c>
-      <c r="T27" t="inlineStr"/>
       <c r="U27" t="n">
         <v>150</v>
       </c>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="inlineStr"/>
-      <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="inlineStr"/>
       <c r="AH27" t="n">
         <v>0.05</v>
       </c>
-      <c r="AI27" t="inlineStr"/>
-      <c r="AJ27" t="inlineStr"/>
-      <c r="AK27" t="inlineStr"/>
-      <c r="AL27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2610,54 +1775,23 @@
       <c r="B28" t="n">
         <v>1</v>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
         <v>7</v>
       </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
           <t>CAD</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
       <c r="S28" t="n">
         <v>415</v>
       </c>
-      <c r="T28" t="inlineStr"/>
       <c r="U28" t="n">
         <v>150</v>
       </c>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="inlineStr"/>
       <c r="AH28" t="n">
         <v>0.05</v>
       </c>
-      <c r="AI28" t="inlineStr"/>
-      <c r="AJ28" t="inlineStr"/>
-      <c r="AK28" t="inlineStr"/>
-      <c r="AL28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2666,54 +1800,23 @@
       <c r="B29" t="n">
         <v>1</v>
       </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
         <v>7</v>
       </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
           <t>EUR</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
       <c r="S29" t="n">
         <v>415</v>
       </c>
-      <c r="T29" t="inlineStr"/>
       <c r="U29" t="n">
         <v>150</v>
       </c>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="inlineStr"/>
       <c r="AH29" t="n">
         <v>0.05</v>
       </c>
-      <c r="AI29" t="inlineStr"/>
-      <c r="AJ29" t="inlineStr"/>
-      <c r="AK29" t="inlineStr"/>
-      <c r="AL29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2722,54 +1825,23 @@
       <c r="B30" t="n">
         <v>1</v>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
         <v>7</v>
       </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
           <t>AUD</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
       <c r="S30" t="n">
         <v>415</v>
       </c>
-      <c r="T30" t="inlineStr"/>
       <c r="U30" t="n">
         <v>150</v>
       </c>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="inlineStr"/>
-      <c r="AG30" t="inlineStr"/>
       <c r="AH30" t="n">
         <v>0.05</v>
       </c>
-      <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="inlineStr"/>
-      <c r="AK30" t="inlineStr"/>
-      <c r="AL30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2778,54 +1850,23 @@
       <c r="B31" t="n">
         <v>1</v>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
         <v>2</v>
       </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
           <t>GBP</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
       <c r="S31" t="n">
         <v>23.333333</v>
       </c>
-      <c r="T31" t="inlineStr"/>
       <c r="U31" t="n">
         <v>43.333333</v>
       </c>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr"/>
-      <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="inlineStr"/>
-      <c r="AG31" t="inlineStr"/>
       <c r="AH31" t="n">
         <v>0.05</v>
       </c>
-      <c r="AI31" t="inlineStr"/>
-      <c r="AJ31" t="inlineStr"/>
-      <c r="AK31" t="inlineStr"/>
-      <c r="AL31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2834,54 +1875,23 @@
       <c r="B32" t="n">
         <v>1</v>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
         <v>3</v>
       </c>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
           <t>GBP</t>
         </is>
       </c>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
       <c r="S32" t="n">
         <v>43.333333</v>
       </c>
-      <c r="T32" t="inlineStr"/>
       <c r="U32" t="n">
         <v>33.333333</v>
       </c>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="inlineStr"/>
-      <c r="AF32" t="inlineStr"/>
-      <c r="AG32" t="inlineStr"/>
       <c r="AH32" t="n">
         <v>0.05</v>
       </c>
-      <c r="AI32" t="inlineStr"/>
-      <c r="AJ32" t="inlineStr"/>
-      <c r="AK32" t="inlineStr"/>
-      <c r="AL32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2890,54 +1900,23 @@
       <c r="B33" t="n">
         <v>1</v>
       </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
         <v>4</v>
       </c>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
           <t>GBP</t>
         </is>
       </c>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
       <c r="S33" t="n">
         <v>76.66666600000001</v>
       </c>
-      <c r="T33" t="inlineStr"/>
       <c r="U33" t="n">
         <v>66.66666600000001</v>
       </c>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
-      <c r="AA33" t="inlineStr"/>
-      <c r="AB33" t="inlineStr"/>
-      <c r="AC33" t="inlineStr"/>
-      <c r="AD33" t="inlineStr"/>
-      <c r="AE33" t="inlineStr"/>
-      <c r="AF33" t="inlineStr"/>
-      <c r="AG33" t="inlineStr"/>
       <c r="AH33" t="n">
         <v>0.05</v>
       </c>
-      <c r="AI33" t="inlineStr"/>
-      <c r="AJ33" t="inlineStr"/>
-      <c r="AK33" t="inlineStr"/>
-      <c r="AL33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -2946,54 +1925,23 @@
       <c r="B34" t="n">
         <v>1</v>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
         <v>5</v>
       </c>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
           <t>GBP</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
       <c r="S34" t="n">
         <v>143.333333</v>
       </c>
-      <c r="T34" t="inlineStr"/>
       <c r="U34" t="n">
         <v>66.66666600000001</v>
       </c>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr"/>
-      <c r="AD34" t="inlineStr"/>
-      <c r="AE34" t="inlineStr"/>
-      <c r="AF34" t="inlineStr"/>
-      <c r="AG34" t="inlineStr"/>
       <c r="AH34" t="n">
         <v>0.05</v>
       </c>
-      <c r="AI34" t="inlineStr"/>
-      <c r="AJ34" t="inlineStr"/>
-      <c r="AK34" t="inlineStr"/>
-      <c r="AL34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3002,54 +1950,23 @@
       <c r="B35" t="n">
         <v>1</v>
       </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
         <v>6</v>
       </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
           <t>GBP</t>
         </is>
       </c>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
       <c r="S35" t="n">
         <v>210</v>
       </c>
-      <c r="T35" t="inlineStr"/>
       <c r="U35" t="n">
         <v>66.66666600000001</v>
       </c>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
-      <c r="AB35" t="inlineStr"/>
-      <c r="AC35" t="inlineStr"/>
-      <c r="AD35" t="inlineStr"/>
-      <c r="AE35" t="inlineStr"/>
-      <c r="AF35" t="inlineStr"/>
-      <c r="AG35" t="inlineStr"/>
       <c r="AH35" t="n">
         <v>0.05</v>
       </c>
-      <c r="AI35" t="inlineStr"/>
-      <c r="AJ35" t="inlineStr"/>
-      <c r="AK35" t="inlineStr"/>
-      <c r="AL35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3058,54 +1975,23 @@
       <c r="B36" t="n">
         <v>1</v>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
         <v>7</v>
       </c>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
           <t>GBP</t>
         </is>
       </c>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
       <c r="S36" t="n">
         <v>276.666666</v>
       </c>
-      <c r="T36" t="inlineStr"/>
       <c r="U36" t="n">
         <v>100</v>
       </c>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="inlineStr"/>
-      <c r="AC36" t="inlineStr"/>
-      <c r="AD36" t="inlineStr"/>
-      <c r="AE36" t="inlineStr"/>
-      <c r="AF36" t="inlineStr"/>
-      <c r="AG36" t="inlineStr"/>
       <c r="AH36" t="n">
         <v>0.05</v>
       </c>
-      <c r="AI36" t="inlineStr"/>
-      <c r="AJ36" t="inlineStr"/>
-      <c r="AK36" t="inlineStr"/>
-      <c r="AL36" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/examples/programs/aviation_axa_xl_2024.xlsx
+++ b/examples/programs/aviation_axa_xl_2024.xlsx
@@ -1148,8 +1148,11 @@
           <t>USD</t>
         </is>
       </c>
+      <c r="Q2" t="n">
+        <v>575</v>
+      </c>
       <c r="W2" t="n">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH2" t="n">
         <v>0.0165</v>
@@ -1170,8 +1173,11 @@
           <t>CAD</t>
         </is>
       </c>
+      <c r="Q3" t="n">
+        <v>575</v>
+      </c>
       <c r="W3" t="n">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH3" t="n">
         <v>0.0165</v>
@@ -1192,8 +1198,11 @@
           <t>EUR</t>
         </is>
       </c>
+      <c r="Q4" t="n">
+        <v>575</v>
+      </c>
       <c r="W4" t="n">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH4" t="n">
         <v>0.0165</v>
@@ -1214,8 +1223,11 @@
           <t>AUD</t>
         </is>
       </c>
+      <c r="Q5" t="n">
+        <v>575</v>
+      </c>
       <c r="W5" t="n">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH5" t="n">
         <v>0.0165</v>
@@ -1236,8 +1248,11 @@
           <t>GBP</t>
         </is>
       </c>
+      <c r="Q6" t="n">
+        <v>575</v>
+      </c>
       <c r="W6" t="n">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="AH6" t="n">
         <v>0.0165</v>
@@ -1258,11 +1273,11 @@
           <t>USD</t>
         </is>
       </c>
+      <c r="Q7" t="n">
+        <v>65</v>
+      </c>
       <c r="S7" t="n">
         <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>65</v>
       </c>
       <c r="AH7" t="n">
         <v>0.05</v>
@@ -1283,11 +1298,11 @@
           <t>CAD</t>
         </is>
       </c>
+      <c r="Q8" t="n">
+        <v>65</v>
+      </c>
       <c r="S8" t="n">
         <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>65</v>
       </c>
       <c r="AH8" t="n">
         <v>0.05</v>
@@ -1308,11 +1323,11 @@
           <t>EUR</t>
         </is>
       </c>
+      <c r="Q9" t="n">
+        <v>65</v>
+      </c>
       <c r="S9" t="n">
         <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>65</v>
       </c>
       <c r="AH9" t="n">
         <v>0.05</v>
@@ -1333,11 +1348,11 @@
           <t>AUD</t>
         </is>
       </c>
+      <c r="Q10" t="n">
+        <v>65</v>
+      </c>
       <c r="S10" t="n">
         <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>65</v>
       </c>
       <c r="AH10" t="n">
         <v>0.05</v>
@@ -1358,11 +1373,11 @@
           <t>USD</t>
         </is>
       </c>
+      <c r="Q11" t="n">
+        <v>50</v>
+      </c>
       <c r="S11" t="n">
         <v>65</v>
-      </c>
-      <c r="U11" t="n">
-        <v>50</v>
       </c>
       <c r="AH11" t="n">
         <v>0.05</v>
@@ -1383,11 +1398,11 @@
           <t>CAD</t>
         </is>
       </c>
+      <c r="Q12" t="n">
+        <v>50</v>
+      </c>
       <c r="S12" t="n">
         <v>65</v>
-      </c>
-      <c r="U12" t="n">
-        <v>50</v>
       </c>
       <c r="AH12" t="n">
         <v>0.05</v>
@@ -1408,11 +1423,11 @@
           <t>EUR</t>
         </is>
       </c>
+      <c r="Q13" t="n">
+        <v>50</v>
+      </c>
       <c r="S13" t="n">
         <v>65</v>
-      </c>
-      <c r="U13" t="n">
-        <v>50</v>
       </c>
       <c r="AH13" t="n">
         <v>0.05</v>
@@ -1433,11 +1448,11 @@
           <t>AUD</t>
         </is>
       </c>
+      <c r="Q14" t="n">
+        <v>50</v>
+      </c>
       <c r="S14" t="n">
         <v>65</v>
-      </c>
-      <c r="U14" t="n">
-        <v>50</v>
       </c>
       <c r="AH14" t="n">
         <v>0.05</v>
@@ -1458,11 +1473,11 @@
           <t>USD</t>
         </is>
       </c>
+      <c r="Q15" t="n">
+        <v>100</v>
+      </c>
       <c r="S15" t="n">
         <v>115</v>
-      </c>
-      <c r="U15" t="n">
-        <v>100</v>
       </c>
       <c r="AH15" t="n">
         <v>0.05</v>
@@ -1483,11 +1498,11 @@
           <t>CAD</t>
         </is>
       </c>
+      <c r="Q16" t="n">
+        <v>100</v>
+      </c>
       <c r="S16" t="n">
         <v>115</v>
-      </c>
-      <c r="U16" t="n">
-        <v>100</v>
       </c>
       <c r="AH16" t="n">
         <v>0.05</v>
@@ -1508,11 +1523,11 @@
           <t>EUR</t>
         </is>
       </c>
+      <c r="Q17" t="n">
+        <v>100</v>
+      </c>
       <c r="S17" t="n">
         <v>115</v>
-      </c>
-      <c r="U17" t="n">
-        <v>100</v>
       </c>
       <c r="AH17" t="n">
         <v>0.05</v>
@@ -1533,11 +1548,11 @@
           <t>AUD</t>
         </is>
       </c>
+      <c r="Q18" t="n">
+        <v>100</v>
+      </c>
       <c r="S18" t="n">
         <v>115</v>
-      </c>
-      <c r="U18" t="n">
-        <v>100</v>
       </c>
       <c r="AH18" t="n">
         <v>0.05</v>
@@ -1558,11 +1573,11 @@
           <t>USD</t>
         </is>
       </c>
+      <c r="Q19" t="n">
+        <v>100</v>
+      </c>
       <c r="S19" t="n">
         <v>215</v>
-      </c>
-      <c r="U19" t="n">
-        <v>100</v>
       </c>
       <c r="AH19" t="n">
         <v>0.05</v>
@@ -1583,11 +1598,11 @@
           <t>CAD</t>
         </is>
       </c>
+      <c r="Q20" t="n">
+        <v>100</v>
+      </c>
       <c r="S20" t="n">
         <v>215</v>
-      </c>
-      <c r="U20" t="n">
-        <v>100</v>
       </c>
       <c r="AH20" t="n">
         <v>0.05</v>
@@ -1608,11 +1623,11 @@
           <t>EUR</t>
         </is>
       </c>
+      <c r="Q21" t="n">
+        <v>100</v>
+      </c>
       <c r="S21" t="n">
         <v>215</v>
-      </c>
-      <c r="U21" t="n">
-        <v>100</v>
       </c>
       <c r="AH21" t="n">
         <v>0.05</v>
@@ -1633,11 +1648,11 @@
           <t>AUD</t>
         </is>
       </c>
+      <c r="Q22" t="n">
+        <v>100</v>
+      </c>
       <c r="S22" t="n">
         <v>215</v>
-      </c>
-      <c r="U22" t="n">
-        <v>100</v>
       </c>
       <c r="AH22" t="n">
         <v>0.05</v>
@@ -1658,11 +1673,11 @@
           <t>USD</t>
         </is>
       </c>
+      <c r="Q23" t="n">
+        <v>100</v>
+      </c>
       <c r="S23" t="n">
         <v>315</v>
-      </c>
-      <c r="U23" t="n">
-        <v>100</v>
       </c>
       <c r="AH23" t="n">
         <v>0.05</v>
@@ -1683,11 +1698,11 @@
           <t>CAD</t>
         </is>
       </c>
+      <c r="Q24" t="n">
+        <v>100</v>
+      </c>
       <c r="S24" t="n">
         <v>315</v>
-      </c>
-      <c r="U24" t="n">
-        <v>100</v>
       </c>
       <c r="AH24" t="n">
         <v>0.05</v>
@@ -1708,11 +1723,11 @@
           <t>EUR</t>
         </is>
       </c>
+      <c r="Q25" t="n">
+        <v>100</v>
+      </c>
       <c r="S25" t="n">
         <v>315</v>
-      </c>
-      <c r="U25" t="n">
-        <v>100</v>
       </c>
       <c r="AH25" t="n">
         <v>0.05</v>
@@ -1733,11 +1748,11 @@
           <t>AUD</t>
         </is>
       </c>
+      <c r="Q26" t="n">
+        <v>100</v>
+      </c>
       <c r="S26" t="n">
         <v>315</v>
-      </c>
-      <c r="U26" t="n">
-        <v>100</v>
       </c>
       <c r="AH26" t="n">
         <v>0.05</v>
@@ -1758,11 +1773,11 @@
           <t>USD</t>
         </is>
       </c>
+      <c r="Q27" t="n">
+        <v>150</v>
+      </c>
       <c r="S27" t="n">
         <v>415</v>
-      </c>
-      <c r="U27" t="n">
-        <v>150</v>
       </c>
       <c r="AH27" t="n">
         <v>0.05</v>
@@ -1783,11 +1798,11 @@
           <t>CAD</t>
         </is>
       </c>
+      <c r="Q28" t="n">
+        <v>150</v>
+      </c>
       <c r="S28" t="n">
         <v>415</v>
-      </c>
-      <c r="U28" t="n">
-        <v>150</v>
       </c>
       <c r="AH28" t="n">
         <v>0.05</v>
@@ -1808,11 +1823,11 @@
           <t>EUR</t>
         </is>
       </c>
+      <c r="Q29" t="n">
+        <v>150</v>
+      </c>
       <c r="S29" t="n">
         <v>415</v>
-      </c>
-      <c r="U29" t="n">
-        <v>150</v>
       </c>
       <c r="AH29" t="n">
         <v>0.05</v>
@@ -1833,11 +1848,11 @@
           <t>AUD</t>
         </is>
       </c>
+      <c r="Q30" t="n">
+        <v>150</v>
+      </c>
       <c r="S30" t="n">
         <v>415</v>
-      </c>
-      <c r="U30" t="n">
-        <v>150</v>
       </c>
       <c r="AH30" t="n">
         <v>0.05</v>
@@ -1858,11 +1873,11 @@
           <t>GBP</t>
         </is>
       </c>
+      <c r="Q31" t="n">
+        <v>43.333333</v>
+      </c>
       <c r="S31" t="n">
         <v>23.333333</v>
-      </c>
-      <c r="U31" t="n">
-        <v>43.333333</v>
       </c>
       <c r="AH31" t="n">
         <v>0.05</v>
@@ -1883,11 +1898,11 @@
           <t>GBP</t>
         </is>
       </c>
+      <c r="Q32" t="n">
+        <v>33.333333</v>
+      </c>
       <c r="S32" t="n">
         <v>43.333333</v>
-      </c>
-      <c r="U32" t="n">
-        <v>33.333333</v>
       </c>
       <c r="AH32" t="n">
         <v>0.05</v>
@@ -1908,11 +1923,11 @@
           <t>GBP</t>
         </is>
       </c>
+      <c r="Q33" t="n">
+        <v>66.66666600000001</v>
+      </c>
       <c r="S33" t="n">
         <v>76.66666600000001</v>
-      </c>
-      <c r="U33" t="n">
-        <v>66.66666600000001</v>
       </c>
       <c r="AH33" t="n">
         <v>0.05</v>
@@ -1933,11 +1948,11 @@
           <t>GBP</t>
         </is>
       </c>
+      <c r="Q34" t="n">
+        <v>66.66666600000001</v>
+      </c>
       <c r="S34" t="n">
         <v>143.333333</v>
-      </c>
-      <c r="U34" t="n">
-        <v>66.66666600000001</v>
       </c>
       <c r="AH34" t="n">
         <v>0.05</v>
@@ -1958,11 +1973,11 @@
           <t>GBP</t>
         </is>
       </c>
+      <c r="Q35" t="n">
+        <v>66.66666600000001</v>
+      </c>
       <c r="S35" t="n">
         <v>210</v>
-      </c>
-      <c r="U35" t="n">
-        <v>66.66666600000001</v>
       </c>
       <c r="AH35" t="n">
         <v>0.05</v>
@@ -1983,11 +1998,11 @@
           <t>GBP</t>
         </is>
       </c>
+      <c r="Q36" t="n">
+        <v>100</v>
+      </c>
       <c r="S36" t="n">
         <v>276.666666</v>
-      </c>
-      <c r="U36" t="n">
-        <v>100</v>
       </c>
       <c r="AH36" t="n">
         <v>0.05</v>

--- a/examples/programs/aviation_axa_xl_2024.xlsx
+++ b/examples/programs/aviation_axa_xl_2024.xlsx
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575</v>
+        <v>575000000</v>
       </c>
       <c r="W2" t="n">
         <v>0.15</v>
@@ -1174,7 +1174,7 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575</v>
+        <v>575000000</v>
       </c>
       <c r="W3" t="n">
         <v>0.15</v>
@@ -1199,7 +1199,7 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575</v>
+        <v>575000000</v>
       </c>
       <c r="W4" t="n">
         <v>0.15</v>
@@ -1224,7 +1224,7 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575</v>
+        <v>575000000</v>
       </c>
       <c r="W5" t="n">
         <v>0.15</v>
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575</v>
+        <v>575000000</v>
       </c>
       <c r="W6" t="n">
         <v>0.15</v>
@@ -1274,7 +1274,7 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>65</v>
+        <v>65000000</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>65</v>
+        <v>65000000</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>65</v>
+        <v>65000000</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>65</v>
+        <v>65000000</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1374,10 +1374,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>50</v>
+        <v>50000000</v>
       </c>
       <c r="S11" t="n">
-        <v>65</v>
+        <v>65000000</v>
       </c>
       <c r="AH11" t="n">
         <v>0.05</v>
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>50</v>
+        <v>50000000</v>
       </c>
       <c r="S12" t="n">
-        <v>65</v>
+        <v>65000000</v>
       </c>
       <c r="AH12" t="n">
         <v>0.05</v>
@@ -1424,10 +1424,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>50</v>
+        <v>50000000</v>
       </c>
       <c r="S13" t="n">
-        <v>65</v>
+        <v>65000000</v>
       </c>
       <c r="AH13" t="n">
         <v>0.05</v>
@@ -1449,10 +1449,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>50</v>
+        <v>50000000</v>
       </c>
       <c r="S14" t="n">
-        <v>65</v>
+        <v>65000000</v>
       </c>
       <c r="AH14" t="n">
         <v>0.05</v>
@@ -1474,10 +1474,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>100</v>
+        <v>100000000</v>
       </c>
       <c r="S15" t="n">
-        <v>115</v>
+        <v>115000000</v>
       </c>
       <c r="AH15" t="n">
         <v>0.05</v>
@@ -1499,10 +1499,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>100</v>
+        <v>100000000</v>
       </c>
       <c r="S16" t="n">
-        <v>115</v>
+        <v>115000000</v>
       </c>
       <c r="AH16" t="n">
         <v>0.05</v>
@@ -1524,10 +1524,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>100</v>
+        <v>100000000</v>
       </c>
       <c r="S17" t="n">
-        <v>115</v>
+        <v>115000000</v>
       </c>
       <c r="AH17" t="n">
         <v>0.05</v>
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>100</v>
+        <v>100000000</v>
       </c>
       <c r="S18" t="n">
-        <v>115</v>
+        <v>115000000</v>
       </c>
       <c r="AH18" t="n">
         <v>0.05</v>
@@ -1574,10 +1574,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>100</v>
+        <v>100000000</v>
       </c>
       <c r="S19" t="n">
-        <v>215</v>
+        <v>215000000</v>
       </c>
       <c r="AH19" t="n">
         <v>0.05</v>
@@ -1599,10 +1599,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>100</v>
+        <v>100000000</v>
       </c>
       <c r="S20" t="n">
-        <v>215</v>
+        <v>215000000</v>
       </c>
       <c r="AH20" t="n">
         <v>0.05</v>
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>100</v>
+        <v>100000000</v>
       </c>
       <c r="S21" t="n">
-        <v>215</v>
+        <v>215000000</v>
       </c>
       <c r="AH21" t="n">
         <v>0.05</v>
@@ -1649,10 +1649,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>100</v>
+        <v>100000000</v>
       </c>
       <c r="S22" t="n">
-        <v>215</v>
+        <v>215000000</v>
       </c>
       <c r="AH22" t="n">
         <v>0.05</v>
@@ -1674,10 +1674,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>100</v>
+        <v>100000000</v>
       </c>
       <c r="S23" t="n">
-        <v>315</v>
+        <v>315000000</v>
       </c>
       <c r="AH23" t="n">
         <v>0.05</v>
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>100</v>
+        <v>100000000</v>
       </c>
       <c r="S24" t="n">
-        <v>315</v>
+        <v>315000000</v>
       </c>
       <c r="AH24" t="n">
         <v>0.05</v>
@@ -1724,10 +1724,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>100</v>
+        <v>100000000</v>
       </c>
       <c r="S25" t="n">
-        <v>315</v>
+        <v>315000000</v>
       </c>
       <c r="AH25" t="n">
         <v>0.05</v>
@@ -1749,10 +1749,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>100</v>
+        <v>100000000</v>
       </c>
       <c r="S26" t="n">
-        <v>315</v>
+        <v>315000000</v>
       </c>
       <c r="AH26" t="n">
         <v>0.05</v>
@@ -1774,10 +1774,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>150</v>
+        <v>150000000</v>
       </c>
       <c r="S27" t="n">
-        <v>415</v>
+        <v>415000000</v>
       </c>
       <c r="AH27" t="n">
         <v>0.05</v>
@@ -1799,10 +1799,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>150</v>
+        <v>150000000</v>
       </c>
       <c r="S28" t="n">
-        <v>415</v>
+        <v>415000000</v>
       </c>
       <c r="AH28" t="n">
         <v>0.05</v>
@@ -1824,10 +1824,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>150</v>
+        <v>150000000</v>
       </c>
       <c r="S29" t="n">
-        <v>415</v>
+        <v>415000000</v>
       </c>
       <c r="AH29" t="n">
         <v>0.05</v>
@@ -1849,10 +1849,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>150</v>
+        <v>150000000</v>
       </c>
       <c r="S30" t="n">
-        <v>415</v>
+        <v>415000000</v>
       </c>
       <c r="AH30" t="n">
         <v>0.05</v>
@@ -1874,10 +1874,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>43.333333</v>
+        <v>43333333</v>
       </c>
       <c r="S31" t="n">
-        <v>23.333333</v>
+        <v>23333333</v>
       </c>
       <c r="AH31" t="n">
         <v>0.05</v>
@@ -1899,10 +1899,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>33.333333</v>
+        <v>33333333</v>
       </c>
       <c r="S32" t="n">
-        <v>43.333333</v>
+        <v>43333333</v>
       </c>
       <c r="AH32" t="n">
         <v>0.05</v>
@@ -1924,10 +1924,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>66.66666600000001</v>
+        <v>66666666</v>
       </c>
       <c r="S33" t="n">
-        <v>76.66666600000001</v>
+        <v>76666666</v>
       </c>
       <c r="AH33" t="n">
         <v>0.05</v>
@@ -1949,10 +1949,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>66.66666600000001</v>
+        <v>66666666</v>
       </c>
       <c r="S34" t="n">
-        <v>143.333333</v>
+        <v>143333333</v>
       </c>
       <c r="AH34" t="n">
         <v>0.05</v>
@@ -1974,10 +1974,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>66.66666600000001</v>
+        <v>66666666</v>
       </c>
       <c r="S35" t="n">
-        <v>210</v>
+        <v>210000000</v>
       </c>
       <c r="AH35" t="n">
         <v>0.05</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>100</v>
+        <v>100000000</v>
       </c>
       <c r="S36" t="n">
-        <v>276.666666</v>
+        <v>276666666</v>
       </c>
       <c r="AH36" t="n">
         <v>0.05</v>

--- a/examples/programs/aviation_axa_xl_2024.xlsx
+++ b/examples/programs/aviation_axa_xl_2024.xlsx
@@ -1152,7 +1152,7 @@
         <v>575000000</v>
       </c>
       <c r="W2" t="n">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="AH2" t="n">
         <v>0.0165</v>
@@ -1177,7 +1177,7 @@
         <v>575000000</v>
       </c>
       <c r="W3" t="n">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="AH3" t="n">
         <v>0.0165</v>
@@ -1202,7 +1202,7 @@
         <v>575000000</v>
       </c>
       <c r="W4" t="n">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="AH4" t="n">
         <v>0.0165</v>
@@ -1227,7 +1227,7 @@
         <v>575000000</v>
       </c>
       <c r="W5" t="n">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="AH5" t="n">
         <v>0.0165</v>
@@ -1252,7 +1252,7 @@
         <v>575000000</v>
       </c>
       <c r="W6" t="n">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="AH6" t="n">
         <v>0.0165</v>
@@ -1277,7 +1277,7 @@
         <v>65000000</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>35000000</v>
       </c>
       <c r="AH7" t="n">
         <v>0.05</v>
@@ -1302,7 +1302,7 @@
         <v>65000000</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>35000000</v>
       </c>
       <c r="AH8" t="n">
         <v>0.05</v>
@@ -1327,7 +1327,7 @@
         <v>65000000</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>35000000</v>
       </c>
       <c r="AH9" t="n">
         <v>0.05</v>
@@ -1352,7 +1352,7 @@
         <v>65000000</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>35000000</v>
       </c>
       <c r="AH10" t="n">
         <v>0.05</v>

--- a/examples/programs/aviation_axa_xl_2024.xlsx
+++ b/examples/programs/aviation_axa_xl_2024.xlsx
@@ -547,7 +547,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,13 +568,14 @@
     <col width="25" customWidth="1" min="11" max="11"/>
     <col width="16" customWidth="1" min="12" max="12"/>
     <col width="23" customWidth="1" min="13" max="13"/>
-    <col width="30" customWidth="1" min="14" max="14"/>
-    <col width="31" customWidth="1" min="15" max="15"/>
-    <col width="34" customWidth="1" min="16" max="16"/>
-    <col width="23" customWidth="1" min="17" max="17"/>
-    <col width="22" customWidth="1" min="18" max="18"/>
-    <col width="28" customWidth="1" min="19" max="19"/>
-    <col width="16" customWidth="1" min="20" max="20"/>
+    <col width="26" customWidth="1" min="14" max="14"/>
+    <col width="30" customWidth="1" min="15" max="15"/>
+    <col width="31" customWidth="1" min="16" max="16"/>
+    <col width="34" customWidth="1" min="17" max="17"/>
+    <col width="23" customWidth="1" min="18" max="18"/>
+    <col width="22" customWidth="1" min="19" max="19"/>
+    <col width="28" customWidth="1" min="20" max="20"/>
+    <col width="16" customWidth="1" min="21" max="21"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -645,35 +646,40 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>INSPER_PREDECESSOR_TITLE</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>INSPER_CONTRACT_FORM_CD_SLAV</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>INSPER_CONTRACT_LODRA_CD_SLAV</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>INSPER_CONTRACT_COVERAGE_CD_SLAV</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>INSPER_CLAIM_BASIS_CD</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>INSPER_LODRA_CD_SLAV</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>INSPER_LOD_TO_RA_DATE_SLAV</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>INSPER_COMMENT</t>
         </is>
@@ -702,7 +708,7 @@
       <c r="M2" t="n">
         <v>0</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>risk_attaching</t>
         </is>
@@ -731,7 +737,12 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>QS_1</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
         <is>
           <t>risk_attaching</t>
         </is>
@@ -760,7 +771,12 @@
       <c r="M4" t="n">
         <v>2</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>QS_1</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
         <is>
           <t>risk_attaching</t>
         </is>
@@ -789,7 +805,12 @@
       <c r="M5" t="n">
         <v>3</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>QS_1</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
         <is>
           <t>risk_attaching</t>
         </is>
@@ -818,7 +839,12 @@
       <c r="M6" t="n">
         <v>4</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>QS_1</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
         <is>
           <t>risk_attaching</t>
         </is>
@@ -847,7 +873,12 @@
       <c r="M7" t="n">
         <v>5</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>QS_1</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
         <is>
           <t>risk_attaching</t>
         </is>
@@ -876,7 +907,12 @@
       <c r="M8" t="n">
         <v>6</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>QS_1</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
         <is>
           <t>risk_attaching</t>
         </is>

--- a/examples/programs/aviation_axa_xl_2024.xlsx
+++ b/examples/programs/aviation_axa_xl_2024.xlsx
@@ -705,9 +705,6 @@
           <t>QS_1</t>
         </is>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="inlineStr">
         <is>
           <t>risk_attaching</t>
@@ -734,9 +731,6 @@
           <t>XOL_1</t>
         </is>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
       <c r="N3" t="inlineStr">
         <is>
           <t>QS_1</t>
@@ -768,9 +762,6 @@
           <t>XOL_2</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
       <c r="N4" t="inlineStr">
         <is>
           <t>QS_1</t>
@@ -802,9 +793,6 @@
           <t>XOL_3</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>3</v>
-      </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>QS_1</t>
@@ -836,9 +824,6 @@
           <t>XOL_4</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
       <c r="N6" t="inlineStr">
         <is>
           <t>QS_1</t>
@@ -870,9 +855,6 @@
           <t>XOL_5</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
       <c r="N7" t="inlineStr">
         <is>
           <t>QS_1</t>
@@ -903,9 +885,6 @@
         <is>
           <t>XOL_6</t>
         </is>
-      </c>
-      <c r="M8" t="n">
-        <v>6</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>

--- a/examples/programs/aviation_axa_xl_2024.xlsx
+++ b/examples/programs/aviation_axa_xl_2024.xlsx
@@ -535,6 +535,16 @@
       <c r="E2" t="b">
         <v>1</v>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>aviation</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Aviation</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/examples/programs/aviation_axa_xl_2024.xlsx
+++ b/examples/programs/aviation_axa_xl_2024.xlsx
@@ -1391,18 +1391,18 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>50000000</v>
+        <v>43333333</v>
       </c>
       <c r="S11" t="n">
-        <v>65000000</v>
+        <v>23333333</v>
       </c>
       <c r="AH11" t="n">
         <v>0.05</v>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>AUD</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1491,18 +1491,18 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>AUD</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>100000000</v>
+        <v>50000000</v>
       </c>
       <c r="S15" t="n">
-        <v>115000000</v>
+        <v>65000000</v>
       </c>
       <c r="AH15" t="n">
         <v>0.05</v>
@@ -1516,18 +1516,18 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>100000000</v>
+        <v>33333333</v>
       </c>
       <c r="S16" t="n">
-        <v>115000000</v>
+        <v>43333333</v>
       </c>
       <c r="AH16" t="n">
         <v>0.05</v>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>AUD</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -1591,18 +1591,18 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="Q19" t="n">
         <v>100000000</v>
       </c>
       <c r="S19" t="n">
-        <v>215000000</v>
+        <v>115000000</v>
       </c>
       <c r="AH19" t="n">
         <v>0.05</v>
@@ -1616,18 +1616,18 @@
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>AUD</t>
         </is>
       </c>
       <c r="Q20" t="n">
         <v>100000000</v>
       </c>
       <c r="S20" t="n">
-        <v>215000000</v>
+        <v>115000000</v>
       </c>
       <c r="AH20" t="n">
         <v>0.05</v>
@@ -1641,18 +1641,18 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>100000000</v>
+        <v>66666666</v>
       </c>
       <c r="S21" t="n">
-        <v>215000000</v>
+        <v>76666666</v>
       </c>
       <c r="AH21" t="n">
         <v>0.05</v>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>AUD</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -1691,18 +1691,18 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>USD</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="Q23" t="n">
         <v>100000000</v>
       </c>
       <c r="S23" t="n">
-        <v>315000000</v>
+        <v>215000000</v>
       </c>
       <c r="AH23" t="n">
         <v>0.05</v>
@@ -1716,18 +1716,18 @@
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>CAD</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="Q24" t="n">
         <v>100000000</v>
       </c>
       <c r="S24" t="n">
-        <v>315000000</v>
+        <v>215000000</v>
       </c>
       <c r="AH24" t="n">
         <v>0.05</v>
@@ -1741,18 +1741,18 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>EUR</t>
+          <t>AUD</t>
         </is>
       </c>
       <c r="Q25" t="n">
         <v>100000000</v>
       </c>
       <c r="S25" t="n">
-        <v>315000000</v>
+        <v>215000000</v>
       </c>
       <c r="AH25" t="n">
         <v>0.05</v>
@@ -1766,18 +1766,18 @@
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>AUD</t>
+          <t>GBP</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>100000000</v>
+        <v>66666666</v>
       </c>
       <c r="S26" t="n">
-        <v>315000000</v>
+        <v>143333333</v>
       </c>
       <c r="AH26" t="n">
         <v>0.05</v>
@@ -1791,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -1799,10 +1799,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>150000000</v>
+        <v>100000000</v>
       </c>
       <c r="S27" t="n">
-        <v>415000000</v>
+        <v>315000000</v>
       </c>
       <c r="AH27" t="n">
         <v>0.05</v>
@@ -1816,7 +1816,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -1824,10 +1824,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>150000000</v>
+        <v>100000000</v>
       </c>
       <c r="S28" t="n">
-        <v>415000000</v>
+        <v>315000000</v>
       </c>
       <c r="AH28" t="n">
         <v>0.05</v>
@@ -1841,7 +1841,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -1849,10 +1849,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>150000000</v>
+        <v>100000000</v>
       </c>
       <c r="S29" t="n">
-        <v>415000000</v>
+        <v>315000000</v>
       </c>
       <c r="AH29" t="n">
         <v>0.05</v>
@@ -1866,7 +1866,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -1874,10 +1874,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>150000000</v>
+        <v>100000000</v>
       </c>
       <c r="S30" t="n">
-        <v>415000000</v>
+        <v>315000000</v>
       </c>
       <c r="AH30" t="n">
         <v>0.05</v>
@@ -1891,7 +1891,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -1899,10 +1899,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>43333333</v>
+        <v>66666666</v>
       </c>
       <c r="S31" t="n">
-        <v>23333333</v>
+        <v>210000000</v>
       </c>
       <c r="AH31" t="n">
         <v>0.05</v>
@@ -1916,18 +1916,18 @@
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>USD</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>33333333</v>
+        <v>150000000</v>
       </c>
       <c r="S32" t="n">
-        <v>43333333</v>
+        <v>415000000</v>
       </c>
       <c r="AH32" t="n">
         <v>0.05</v>
@@ -1941,18 +1941,18 @@
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>CAD</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>66666666</v>
+        <v>150000000</v>
       </c>
       <c r="S33" t="n">
-        <v>76666666</v>
+        <v>415000000</v>
       </c>
       <c r="AH33" t="n">
         <v>0.05</v>
@@ -1966,18 +1966,18 @@
         <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>EUR</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>66666666</v>
+        <v>150000000</v>
       </c>
       <c r="S34" t="n">
-        <v>143333333</v>
+        <v>415000000</v>
       </c>
       <c r="AH34" t="n">
         <v>0.05</v>
@@ -1991,18 +1991,18 @@
         <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>GBP</t>
+          <t>AUD</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>66666666</v>
+        <v>150000000</v>
       </c>
       <c r="S35" t="n">
-        <v>210000000</v>
+        <v>415000000</v>
       </c>
       <c r="AH35" t="n">
         <v>0.05</v>

--- a/examples/programs/aviation_axa_xl_2024.xlsx
+++ b/examples/programs/aviation_axa_xl_2024.xlsx
@@ -918,7 +918,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL36"/>
+  <dimension ref="A1:AN36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -964,6 +964,8 @@
     <col width="17" customWidth="1" min="36" max="36"/>
     <col width="13" customWidth="1" min="37" max="37"/>
     <col width="22" customWidth="1" min="38" max="38"/>
+    <col width="15" customWidth="1" min="39" max="39"/>
+    <col width="20" customWidth="1" min="40" max="40"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1157,6 +1159,16 @@
           <t>NO_OF_REINSTATEMENTS</t>
         </is>
       </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>INCLUDES_HULL</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>INCLUDES_LIABILITY</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1181,6 +1193,12 @@
       </c>
       <c r="AH2" t="n">
         <v>0.0165</v>
+      </c>
+      <c r="AM2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1207,6 +1225,12 @@
       <c r="AH3" t="n">
         <v>0.0165</v>
       </c>
+      <c r="AM3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN3" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1232,6 +1256,12 @@
       <c r="AH4" t="n">
         <v>0.0165</v>
       </c>
+      <c r="AM4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1257,6 +1287,12 @@
       <c r="AH5" t="n">
         <v>0.0165</v>
       </c>
+      <c r="AM5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN5" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1282,6 +1318,12 @@
       <c r="AH6" t="n">
         <v>0.0165</v>
       </c>
+      <c r="AM6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN6" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1307,6 +1349,12 @@
       <c r="AH7" t="n">
         <v>0.05</v>
       </c>
+      <c r="AM7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN7" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1332,6 +1380,12 @@
       <c r="AH8" t="n">
         <v>0.05</v>
       </c>
+      <c r="AM8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN8" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1357,6 +1411,12 @@
       <c r="AH9" t="n">
         <v>0.05</v>
       </c>
+      <c r="AM9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN9" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1382,6 +1442,12 @@
       <c r="AH10" t="n">
         <v>0.05</v>
       </c>
+      <c r="AM10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN10" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1407,6 +1473,12 @@
       <c r="AH11" t="n">
         <v>0.05</v>
       </c>
+      <c r="AM11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1432,6 +1504,12 @@
       <c r="AH12" t="n">
         <v>0.05</v>
       </c>
+      <c r="AM12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN12" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1457,6 +1535,12 @@
       <c r="AH13" t="n">
         <v>0.05</v>
       </c>
+      <c r="AM13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN13" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1482,6 +1566,12 @@
       <c r="AH14" t="n">
         <v>0.05</v>
       </c>
+      <c r="AM14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN14" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1507,6 +1597,12 @@
       <c r="AH15" t="n">
         <v>0.05</v>
       </c>
+      <c r="AM15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN15" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1532,6 +1628,12 @@
       <c r="AH16" t="n">
         <v>0.05</v>
       </c>
+      <c r="AM16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN16" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1557,6 +1659,12 @@
       <c r="AH17" t="n">
         <v>0.05</v>
       </c>
+      <c r="AM17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN17" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1582,6 +1690,12 @@
       <c r="AH18" t="n">
         <v>0.05</v>
       </c>
+      <c r="AM18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN18" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1607,6 +1721,12 @@
       <c r="AH19" t="n">
         <v>0.05</v>
       </c>
+      <c r="AM19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN19" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1632,6 +1752,12 @@
       <c r="AH20" t="n">
         <v>0.05</v>
       </c>
+      <c r="AM20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN20" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1657,6 +1783,12 @@
       <c r="AH21" t="n">
         <v>0.05</v>
       </c>
+      <c r="AM21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN21" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1682,6 +1814,12 @@
       <c r="AH22" t="n">
         <v>0.05</v>
       </c>
+      <c r="AM22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN22" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1707,6 +1845,12 @@
       <c r="AH23" t="n">
         <v>0.05</v>
       </c>
+      <c r="AM23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN23" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1732,6 +1876,12 @@
       <c r="AH24" t="n">
         <v>0.05</v>
       </c>
+      <c r="AM24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN24" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1757,6 +1907,12 @@
       <c r="AH25" t="n">
         <v>0.05</v>
       </c>
+      <c r="AM25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN25" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1782,6 +1938,12 @@
       <c r="AH26" t="n">
         <v>0.05</v>
       </c>
+      <c r="AM26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN26" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1807,6 +1969,12 @@
       <c r="AH27" t="n">
         <v>0.05</v>
       </c>
+      <c r="AM27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN27" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1832,6 +2000,12 @@
       <c r="AH28" t="n">
         <v>0.05</v>
       </c>
+      <c r="AM28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN28" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1857,6 +2031,12 @@
       <c r="AH29" t="n">
         <v>0.05</v>
       </c>
+      <c r="AM29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN29" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1882,6 +2062,12 @@
       <c r="AH30" t="n">
         <v>0.05</v>
       </c>
+      <c r="AM30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN30" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1907,6 +2093,12 @@
       <c r="AH31" t="n">
         <v>0.05</v>
       </c>
+      <c r="AM31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN31" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1932,6 +2124,12 @@
       <c r="AH32" t="n">
         <v>0.05</v>
       </c>
+      <c r="AM32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN32" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1957,6 +2155,12 @@
       <c r="AH33" t="n">
         <v>0.05</v>
       </c>
+      <c r="AM33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN33" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1982,6 +2186,12 @@
       <c r="AH34" t="n">
         <v>0.05</v>
       </c>
+      <c r="AM34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN34" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -2007,6 +2217,12 @@
       <c r="AH35" t="n">
         <v>0.05</v>
       </c>
+      <c r="AM35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN35" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -2031,6 +2247,12 @@
       </c>
       <c r="AH36" t="n">
         <v>0.05</v>
+      </c>
+      <c r="AM36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN36" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/examples/programs/aviation_axa_xl_2024.xlsx
+++ b/examples/programs/aviation_axa_xl_2024.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="program" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="structures" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="sections" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="conditions" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/examples/programs/aviation_axa_xl_2024.xlsx
+++ b/examples/programs/aviation_axa_xl_2024.xlsx
@@ -918,7 +918,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN36"/>
+  <dimension ref="A1:AM36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -946,26 +946,25 @@
     <col width="19" customWidth="1" min="18" max="18"/>
     <col width="22" customWidth="1" min="19" max="19"/>
     <col width="10" customWidth="1" min="20" max="20"/>
-    <col width="22" customWidth="1" min="21" max="21"/>
-    <col width="15" customWidth="1" min="22" max="22"/>
-    <col width="13" customWidth="1" min="23" max="23"/>
-    <col width="15" customWidth="1" min="24" max="24"/>
-    <col width="10" customWidth="1" min="25" max="25"/>
-    <col width="27" customWidth="1" min="26" max="26"/>
-    <col width="28" customWidth="1" min="27" max="27"/>
-    <col width="18" customWidth="1" min="28" max="28"/>
-    <col width="21" customWidth="1" min="29" max="29"/>
-    <col width="17" customWidth="1" min="30" max="30"/>
-    <col width="28" customWidth="1" min="31" max="31"/>
-    <col width="15" customWidth="1" min="32" max="32"/>
-    <col width="16" customWidth="1" min="33" max="33"/>
-    <col width="18" customWidth="1" min="34" max="34"/>
-    <col width="23" customWidth="1" min="35" max="35"/>
-    <col width="17" customWidth="1" min="36" max="36"/>
-    <col width="13" customWidth="1" min="37" max="37"/>
-    <col width="22" customWidth="1" min="38" max="38"/>
-    <col width="15" customWidth="1" min="39" max="39"/>
-    <col width="20" customWidth="1" min="40" max="40"/>
+    <col width="15" customWidth="1" min="21" max="21"/>
+    <col width="13" customWidth="1" min="22" max="22"/>
+    <col width="15" customWidth="1" min="23" max="23"/>
+    <col width="10" customWidth="1" min="24" max="24"/>
+    <col width="27" customWidth="1" min="25" max="25"/>
+    <col width="28" customWidth="1" min="26" max="26"/>
+    <col width="18" customWidth="1" min="27" max="27"/>
+    <col width="21" customWidth="1" min="28" max="28"/>
+    <col width="17" customWidth="1" min="29" max="29"/>
+    <col width="28" customWidth="1" min="30" max="30"/>
+    <col width="15" customWidth="1" min="31" max="31"/>
+    <col width="16" customWidth="1" min="32" max="32"/>
+    <col width="18" customWidth="1" min="33" max="33"/>
+    <col width="23" customWidth="1" min="34" max="34"/>
+    <col width="17" customWidth="1" min="35" max="35"/>
+    <col width="13" customWidth="1" min="36" max="36"/>
+    <col width="22" customWidth="1" min="37" max="37"/>
+    <col width="15" customWidth="1" min="38" max="38"/>
+    <col width="20" customWidth="1" min="39" max="39"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1071,100 +1070,95 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>LIMIT_OCCURRENCE_100</t>
+          <t>LIMIT_AGG_100</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>LIMIT_AGG_100</t>
+          <t>CESSION_PCT</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>CESSION_PCT</t>
+          <t>RETENTION_PCT</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>RETENTION_PCT</t>
+          <t>SUPI_100</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>SUPI_100</t>
+          <t>BUSCL_PREMIUM_CURRENCY_CD</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>BUSCL_PREMIUM_CURRENCY_CD</t>
+          <t>BUSCL_PREMIUM_GROSS_NET_CD</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>BUSCL_PREMIUM_GROSS_NET_CD</t>
+          <t>PREMIUM_RATE_PCT</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>PREMIUM_RATE_PCT</t>
+          <t>PREMIUM_DEPOSIT_100</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>PREMIUM_DEPOSIT_100</t>
+          <t>PREMIUM_MIN_100</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>PREMIUM_MIN_100</t>
+          <t>BUSCL_LIABILITY_1_LINE_100</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>BUSCL_LIABILITY_1_LINE_100</t>
+          <t>MAX_COVER_PCT</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>MAX_COVER_PCT</t>
+          <t>MIN_EXCESS_PCT</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>MIN_EXCESS_PCT</t>
+          <t>SIGNED_SHARE_PCT</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>SIGNED_SHARE_PCT</t>
+          <t>AVERAGE_LINE_SLAV_CED</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>AVERAGE_LINE_SLAV_CED</t>
+          <t>PML_DEFAULT_PCT</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>PML_DEFAULT_PCT</t>
+          <t>LIMIT_EVENT</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>LIMIT_EVENT</t>
+          <t>NO_OF_REINSTATEMENTS</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>NO_OF_REINSTATEMENTS</t>
+          <t>INCLUDES_HULL</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>INCLUDES_HULL</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>INCLUDES_LIABILITY</t>
         </is>
@@ -1188,16 +1182,16 @@
       <c r="Q2" t="n">
         <v>575000000</v>
       </c>
-      <c r="W2" t="n">
+      <c r="V2" t="n">
         <v>0.25</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AG2" t="n">
         <v>0.0165</v>
       </c>
+      <c r="AL2" t="b">
+        <v>1</v>
+      </c>
       <c r="AM2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1219,16 +1213,16 @@
       <c r="Q3" t="n">
         <v>575000000</v>
       </c>
-      <c r="W3" t="n">
+      <c r="V3" t="n">
         <v>0.25</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AG3" t="n">
         <v>0.0165</v>
       </c>
+      <c r="AL3" t="b">
+        <v>1</v>
+      </c>
       <c r="AM3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1250,16 +1244,16 @@
       <c r="Q4" t="n">
         <v>575000000</v>
       </c>
-      <c r="W4" t="n">
+      <c r="V4" t="n">
         <v>0.25</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AG4" t="n">
         <v>0.0165</v>
       </c>
+      <c r="AL4" t="b">
+        <v>1</v>
+      </c>
       <c r="AM4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1281,16 +1275,16 @@
       <c r="Q5" t="n">
         <v>575000000</v>
       </c>
-      <c r="W5" t="n">
+      <c r="V5" t="n">
         <v>0.25</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AG5" t="n">
         <v>0.0165</v>
       </c>
+      <c r="AL5" t="b">
+        <v>1</v>
+      </c>
       <c r="AM5" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1312,16 +1306,16 @@
       <c r="Q6" t="n">
         <v>575000000</v>
       </c>
-      <c r="W6" t="n">
+      <c r="V6" t="n">
         <v>0.25</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AG6" t="n">
         <v>0.0165</v>
       </c>
+      <c r="AL6" t="b">
+        <v>1</v>
+      </c>
       <c r="AM6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1346,13 +1340,13 @@
       <c r="S7" t="n">
         <v>35000000</v>
       </c>
-      <c r="AH7" t="n">
-        <v>0.05</v>
+      <c r="AG7" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AL7" t="b">
+        <v>1</v>
       </c>
       <c r="AM7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1377,13 +1371,13 @@
       <c r="S8" t="n">
         <v>35000000</v>
       </c>
-      <c r="AH8" t="n">
-        <v>0.05</v>
+      <c r="AG8" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AL8" t="b">
+        <v>1</v>
       </c>
       <c r="AM8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1408,13 +1402,13 @@
       <c r="S9" t="n">
         <v>35000000</v>
       </c>
-      <c r="AH9" t="n">
-        <v>0.05</v>
+      <c r="AG9" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AL9" t="b">
+        <v>1</v>
       </c>
       <c r="AM9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1439,13 +1433,13 @@
       <c r="S10" t="n">
         <v>35000000</v>
       </c>
-      <c r="AH10" t="n">
-        <v>0.05</v>
+      <c r="AG10" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AL10" t="b">
+        <v>1</v>
       </c>
       <c r="AM10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN10" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1470,13 +1464,13 @@
       <c r="S11" t="n">
         <v>23333333</v>
       </c>
-      <c r="AH11" t="n">
-        <v>0.05</v>
+      <c r="AG11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AL11" t="b">
+        <v>1</v>
       </c>
       <c r="AM11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN11" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1501,13 +1495,13 @@
       <c r="S12" t="n">
         <v>65000000</v>
       </c>
-      <c r="AH12" t="n">
-        <v>0.05</v>
+      <c r="AG12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AL12" t="b">
+        <v>1</v>
       </c>
       <c r="AM12" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN12" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1532,13 +1526,13 @@
       <c r="S13" t="n">
         <v>65000000</v>
       </c>
-      <c r="AH13" t="n">
-        <v>0.05</v>
+      <c r="AG13" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AL13" t="b">
+        <v>1</v>
       </c>
       <c r="AM13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN13" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1563,13 +1557,13 @@
       <c r="S14" t="n">
         <v>65000000</v>
       </c>
-      <c r="AH14" t="n">
-        <v>0.05</v>
+      <c r="AG14" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AL14" t="b">
+        <v>1</v>
       </c>
       <c r="AM14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN14" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1594,13 +1588,13 @@
       <c r="S15" t="n">
         <v>65000000</v>
       </c>
-      <c r="AH15" t="n">
-        <v>0.05</v>
+      <c r="AG15" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AL15" t="b">
+        <v>1</v>
       </c>
       <c r="AM15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN15" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1625,13 +1619,13 @@
       <c r="S16" t="n">
         <v>43333333</v>
       </c>
-      <c r="AH16" t="n">
-        <v>0.05</v>
+      <c r="AG16" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AL16" t="b">
+        <v>1</v>
       </c>
       <c r="AM16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN16" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1656,13 +1650,13 @@
       <c r="S17" t="n">
         <v>115000000</v>
       </c>
-      <c r="AH17" t="n">
-        <v>0.05</v>
+      <c r="AG17" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AL17" t="b">
+        <v>1</v>
       </c>
       <c r="AM17" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN17" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1687,13 +1681,13 @@
       <c r="S18" t="n">
         <v>115000000</v>
       </c>
-      <c r="AH18" t="n">
-        <v>0.05</v>
+      <c r="AG18" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AL18" t="b">
+        <v>1</v>
       </c>
       <c r="AM18" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN18" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1718,13 +1712,13 @@
       <c r="S19" t="n">
         <v>115000000</v>
       </c>
-      <c r="AH19" t="n">
-        <v>0.05</v>
+      <c r="AG19" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AL19" t="b">
+        <v>1</v>
       </c>
       <c r="AM19" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN19" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1749,13 +1743,13 @@
       <c r="S20" t="n">
         <v>115000000</v>
       </c>
-      <c r="AH20" t="n">
-        <v>0.05</v>
+      <c r="AG20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AL20" t="b">
+        <v>1</v>
       </c>
       <c r="AM20" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN20" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1780,13 +1774,13 @@
       <c r="S21" t="n">
         <v>76666666</v>
       </c>
-      <c r="AH21" t="n">
-        <v>0.05</v>
+      <c r="AG21" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AL21" t="b">
+        <v>1</v>
       </c>
       <c r="AM21" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN21" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1811,13 +1805,13 @@
       <c r="S22" t="n">
         <v>215000000</v>
       </c>
-      <c r="AH22" t="n">
-        <v>0.05</v>
+      <c r="AG22" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AL22" t="b">
+        <v>1</v>
       </c>
       <c r="AM22" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN22" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1842,13 +1836,13 @@
       <c r="S23" t="n">
         <v>215000000</v>
       </c>
-      <c r="AH23" t="n">
-        <v>0.05</v>
+      <c r="AG23" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AL23" t="b">
+        <v>1</v>
       </c>
       <c r="AM23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN23" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1873,13 +1867,13 @@
       <c r="S24" t="n">
         <v>215000000</v>
       </c>
-      <c r="AH24" t="n">
-        <v>0.05</v>
+      <c r="AG24" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AL24" t="b">
+        <v>1</v>
       </c>
       <c r="AM24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN24" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1904,13 +1898,13 @@
       <c r="S25" t="n">
         <v>215000000</v>
       </c>
-      <c r="AH25" t="n">
-        <v>0.05</v>
+      <c r="AG25" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AL25" t="b">
+        <v>1</v>
       </c>
       <c r="AM25" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN25" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1935,13 +1929,13 @@
       <c r="S26" t="n">
         <v>143333333</v>
       </c>
-      <c r="AH26" t="n">
-        <v>0.05</v>
+      <c r="AG26" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AL26" t="b">
+        <v>1</v>
       </c>
       <c r="AM26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN26" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1966,13 +1960,13 @@
       <c r="S27" t="n">
         <v>315000000</v>
       </c>
-      <c r="AH27" t="n">
-        <v>0.05</v>
+      <c r="AG27" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AL27" t="b">
+        <v>1</v>
       </c>
       <c r="AM27" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN27" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1997,13 +1991,13 @@
       <c r="S28" t="n">
         <v>315000000</v>
       </c>
-      <c r="AH28" t="n">
-        <v>0.05</v>
+      <c r="AG28" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AL28" t="b">
+        <v>1</v>
       </c>
       <c r="AM28" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN28" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2028,13 +2022,13 @@
       <c r="S29" t="n">
         <v>315000000</v>
       </c>
-      <c r="AH29" t="n">
-        <v>0.05</v>
+      <c r="AG29" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AL29" t="b">
+        <v>1</v>
       </c>
       <c r="AM29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN29" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2059,13 +2053,13 @@
       <c r="S30" t="n">
         <v>315000000</v>
       </c>
-      <c r="AH30" t="n">
-        <v>0.05</v>
+      <c r="AG30" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AL30" t="b">
+        <v>1</v>
       </c>
       <c r="AM30" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN30" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2090,13 +2084,13 @@
       <c r="S31" t="n">
         <v>210000000</v>
       </c>
-      <c r="AH31" t="n">
-        <v>0.05</v>
+      <c r="AG31" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AL31" t="b">
+        <v>1</v>
       </c>
       <c r="AM31" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN31" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2121,13 +2115,13 @@
       <c r="S32" t="n">
         <v>415000000</v>
       </c>
-      <c r="AH32" t="n">
-        <v>0.05</v>
+      <c r="AG32" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AL32" t="b">
+        <v>1</v>
       </c>
       <c r="AM32" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN32" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2152,13 +2146,13 @@
       <c r="S33" t="n">
         <v>415000000</v>
       </c>
-      <c r="AH33" t="n">
-        <v>0.05</v>
+      <c r="AG33" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AL33" t="b">
+        <v>1</v>
       </c>
       <c r="AM33" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN33" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2183,13 +2177,13 @@
       <c r="S34" t="n">
         <v>415000000</v>
       </c>
-      <c r="AH34" t="n">
-        <v>0.05</v>
+      <c r="AG34" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AL34" t="b">
+        <v>1</v>
       </c>
       <c r="AM34" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN34" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2214,13 +2208,13 @@
       <c r="S35" t="n">
         <v>415000000</v>
       </c>
-      <c r="AH35" t="n">
-        <v>0.05</v>
+      <c r="AG35" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AL35" t="b">
+        <v>1</v>
       </c>
       <c r="AM35" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN35" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2245,13 +2239,13 @@
       <c r="S36" t="n">
         <v>276666666</v>
       </c>
-      <c r="AH36" t="n">
-        <v>0.05</v>
+      <c r="AG36" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AL36" t="b">
+        <v>1</v>
       </c>
       <c r="AM36" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN36" t="b">
         <v>1</v>
       </c>
     </row>
